--- a/dog-data/Dog Data IB.xlsx
+++ b/dog-data/Dog Data IB.xlsx
@@ -1,17 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
+  <workbookPr autoCompressPictures="0"/>
+  <bookViews>
+    <workbookView xWindow="680" yWindow="940" windowWidth="27740" windowHeight="18200" tabRatio="500" activeTab="1"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="KIB - Best in Show (public) - B" sheetId="1" r:id="rId3"/>
+    <sheet name="KIB - Best in Show (public) - B" sheetId="1" r:id="rId1"/>
+    <sheet name="dogdata" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1640" uniqueCount="352">
   <si>
     <t>Best in show?</t>
   </si>
@@ -1045,25 +1055,68 @@
   </si>
   <si>
     <t>$717</t>
+  </si>
+  <si>
+    <t>breed</t>
+  </si>
+  <si>
+    <t>intelligence</t>
+  </si>
+  <si>
+    <t>lifespan</t>
+  </si>
+  <si>
+    <t>purchaseCost</t>
+  </si>
+  <si>
+    <t>foodCost</t>
+  </si>
+  <si>
+    <t>grooming</t>
+  </si>
+  <si>
+    <t>childOK</t>
+  </si>
+  <si>
+    <t>sized</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <b/>
       <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1071,7 +1124,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -1080,61 +1133,471 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="47">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="47">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
-<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K178"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="J83" sqref="J83"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="32.29"/>
-    <col customWidth="1" min="2" max="2" width="20.86"/>
-    <col customWidth="1" min="3" max="3" width="16.29"/>
-    <col customWidth="1" min="4" max="4" width="15.86"/>
-    <col customWidth="1" min="5" max="5" width="21.57"/>
+    <col min="1" max="1" width="32.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" customWidth="1"/>
+    <col min="5" max="5" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11" ht="12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1146,22 +1609,22 @@
         <v>16.5</v>
       </c>
       <c r="E1" s="3">
-        <v>2680.0</v>
+        <v>2680</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H1" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11" ht="12">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -1172,19 +1635,19 @@
         <v>7.56</v>
       </c>
       <c r="E2" s="4">
-        <v>288.0</v>
+        <v>288</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="12">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -1213,7 +1676,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" ht="78.75" customHeight="1">
+    <row r="4" spans="1:11" ht="78.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
@@ -1242,7 +1705,7 @@
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:11" ht="12">
       <c r="A5" s="4" t="s">
         <v>23</v>
       </c>
@@ -1250,7 +1713,7 @@
         <v>24</v>
       </c>
       <c r="C5" s="7">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="4">
         <v>12.52</v>
@@ -1262,16 +1725,16 @@
         <v>26</v>
       </c>
       <c r="G5" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H5" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:11" ht="12">
       <c r="A6" s="4" t="s">
         <v>28</v>
       </c>
@@ -1282,7 +1745,7 @@
         <v>0.7</v>
       </c>
       <c r="D6" s="4">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>30</v>
@@ -1291,16 +1754,16 @@
         <v>26</v>
       </c>
       <c r="G6" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H6" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:11" ht="12">
       <c r="A7" s="4" t="s">
         <v>32</v>
       </c>
@@ -1320,16 +1783,16 @@
         <v>35</v>
       </c>
       <c r="G7" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H7" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:11" ht="12">
       <c r="A8" s="4" t="s">
         <v>36</v>
       </c>
@@ -1349,16 +1812,16 @@
         <v>26</v>
       </c>
       <c r="G8" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H8" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:11" ht="12">
       <c r="A9" s="4" t="s">
         <v>38</v>
       </c>
@@ -1378,16 +1841,16 @@
         <v>26</v>
       </c>
       <c r="G9" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H9" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:11" ht="12">
       <c r="A10" s="4" t="s">
         <v>40</v>
       </c>
@@ -1407,16 +1870,16 @@
         <v>26</v>
       </c>
       <c r="G10" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H10" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:11" ht="12">
       <c r="A11" s="4" t="s">
         <v>42</v>
       </c>
@@ -1436,16 +1899,16 @@
         <v>44</v>
       </c>
       <c r="G11" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H11" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:11" ht="12">
       <c r="A12" s="4" t="s">
         <v>45</v>
       </c>
@@ -1456,7 +1919,7 @@
         <v>0.92</v>
       </c>
       <c r="D12" s="4">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>47</v>
@@ -1465,16 +1928,16 @@
         <v>26</v>
       </c>
       <c r="G12" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H12" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:11" ht="12">
       <c r="A13" s="4" t="s">
         <v>48</v>
       </c>
@@ -1494,16 +1957,16 @@
         <v>35</v>
       </c>
       <c r="G13" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H13" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:11" ht="12">
       <c r="A14" s="4" t="s">
         <v>50</v>
       </c>
@@ -1523,16 +1986,16 @@
         <v>51</v>
       </c>
       <c r="G14" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:11" ht="12">
       <c r="A15" s="4" t="s">
         <v>52</v>
       </c>
@@ -1552,16 +2015,16 @@
         <v>35</v>
       </c>
       <c r="G15" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H15" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:11" ht="12">
       <c r="A16" s="4" t="s">
         <v>55</v>
       </c>
@@ -1581,16 +2044,16 @@
         <v>26</v>
       </c>
       <c r="G16" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H16" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:9" ht="12">
       <c r="A17" s="4" t="s">
         <v>58</v>
       </c>
@@ -1598,7 +2061,7 @@
         <v>46</v>
       </c>
       <c r="C17" s="7">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="D17" s="4">
         <v>11.42</v>
@@ -1610,16 +2073,16 @@
         <v>26</v>
       </c>
       <c r="G17" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H17" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:9" ht="12">
       <c r="A18" s="4" t="s">
         <v>60</v>
       </c>
@@ -1639,16 +2102,16 @@
         <v>26</v>
       </c>
       <c r="G18" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H18" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:9" ht="12">
       <c r="A19" s="4" t="s">
         <v>63</v>
       </c>
@@ -1668,16 +2131,16 @@
         <v>51</v>
       </c>
       <c r="G19" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H19" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:9" ht="12">
       <c r="A20" s="4" t="s">
         <v>65</v>
       </c>
@@ -1697,16 +2160,16 @@
         <v>26</v>
       </c>
       <c r="G20" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H20" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:9" ht="12">
       <c r="A21" s="4" t="s">
         <v>67</v>
       </c>
@@ -1726,16 +2189,16 @@
         <v>26</v>
       </c>
       <c r="G21" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H21" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:9" ht="12">
       <c r="A22" s="4" t="s">
         <v>69</v>
       </c>
@@ -1755,16 +2218,16 @@
         <v>26</v>
       </c>
       <c r="G22" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H22" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:9" ht="12">
       <c r="A23" s="4" t="s">
         <v>71</v>
       </c>
@@ -1784,16 +2247,16 @@
         <v>35</v>
       </c>
       <c r="G23" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H23" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:9" ht="12">
       <c r="A24" s="4" t="s">
         <v>73</v>
       </c>
@@ -1813,16 +2276,16 @@
         <v>26</v>
       </c>
       <c r="G24" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H24" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:9" ht="12">
       <c r="A25" s="4" t="s">
         <v>75</v>
       </c>
@@ -1842,16 +2305,16 @@
         <v>26</v>
       </c>
       <c r="G25" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H25" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I25" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:9" ht="12">
       <c r="A26" s="4" t="s">
         <v>77</v>
       </c>
@@ -1871,16 +2334,16 @@
         <v>35</v>
       </c>
       <c r="G26" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H26" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:9" ht="12">
       <c r="A27" s="4" t="s">
         <v>79</v>
       </c>
@@ -1900,16 +2363,16 @@
         <v>26</v>
       </c>
       <c r="G27" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H27" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I27" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:9" ht="12">
       <c r="A28" s="4" t="s">
         <v>81</v>
       </c>
@@ -1929,16 +2392,16 @@
         <v>83</v>
       </c>
       <c r="G28" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H28" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:9" ht="12">
       <c r="A29" s="4" t="s">
         <v>85</v>
       </c>
@@ -1958,16 +2421,16 @@
         <v>87</v>
       </c>
       <c r="G29" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H29" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:9" ht="12">
       <c r="A30" s="4" t="s">
         <v>88</v>
       </c>
@@ -1987,16 +2450,16 @@
         <v>35</v>
       </c>
       <c r="G30" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H30" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:9" ht="12">
       <c r="A31" s="4" t="s">
         <v>90</v>
       </c>
@@ -2016,16 +2479,16 @@
         <v>35</v>
       </c>
       <c r="G31" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H31" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:9" ht="12">
       <c r="A32" s="4" t="s">
         <v>92</v>
       </c>
@@ -2045,16 +2508,16 @@
         <v>5</v>
       </c>
       <c r="G32" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H32" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I32" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:9" ht="12">
       <c r="A33" s="4" t="s">
         <v>93</v>
       </c>
@@ -2074,16 +2537,16 @@
         <v>26</v>
       </c>
       <c r="G33" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H33" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I33" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:9" ht="12">
       <c r="A34" s="4" t="s">
         <v>95</v>
       </c>
@@ -2103,16 +2566,16 @@
         <v>26</v>
       </c>
       <c r="G34" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H34" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I34" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:9" ht="12">
       <c r="A35" s="4" t="s">
         <v>97</v>
       </c>
@@ -2132,16 +2595,16 @@
         <v>35</v>
       </c>
       <c r="G35" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H35" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I35" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:9" ht="12">
       <c r="A36" s="4" t="s">
         <v>99</v>
       </c>
@@ -2161,16 +2624,16 @@
         <v>26</v>
       </c>
       <c r="G36" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H36" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I36" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:9" ht="12">
       <c r="A37" s="4" t="s">
         <v>101</v>
       </c>
@@ -2190,16 +2653,16 @@
         <v>35</v>
       </c>
       <c r="G37" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H37" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I37" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:9" ht="12">
       <c r="A38" s="4" t="s">
         <v>103</v>
       </c>
@@ -2207,7 +2670,7 @@
         <v>61</v>
       </c>
       <c r="C38" s="7">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="D38" s="4">
         <v>11.83</v>
@@ -2219,16 +2682,16 @@
         <v>35</v>
       </c>
       <c r="G38" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H38" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I38" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:9" ht="12">
       <c r="A39" s="4" t="s">
         <v>105</v>
       </c>
@@ -2239,7 +2702,7 @@
         <v>0.25</v>
       </c>
       <c r="D39" s="4">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>30</v>
@@ -2248,16 +2711,16 @@
         <v>26</v>
       </c>
       <c r="G39" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H39" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I39" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:9" ht="12">
       <c r="A40" s="4" t="s">
         <v>106</v>
       </c>
@@ -2277,16 +2740,16 @@
         <v>35</v>
       </c>
       <c r="G40" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H40" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I40" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:9" ht="12">
       <c r="A41" s="4" t="s">
         <v>108</v>
       </c>
@@ -2306,16 +2769,16 @@
         <v>87</v>
       </c>
       <c r="G41" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H41" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I41" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:9" ht="12">
       <c r="A42" s="4" t="s">
         <v>110</v>
       </c>
@@ -2335,16 +2798,16 @@
         <v>26</v>
       </c>
       <c r="G42" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H42" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I42" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:9" ht="12">
       <c r="A43" s="4" t="s">
         <v>112</v>
       </c>
@@ -2364,16 +2827,16 @@
         <v>35</v>
       </c>
       <c r="G43" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H43" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I43" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:9" ht="12">
       <c r="A44" s="4" t="s">
         <v>114</v>
       </c>
@@ -2393,16 +2856,16 @@
         <v>26</v>
       </c>
       <c r="G44" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H44" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:9" ht="12">
       <c r="A45" s="4" t="s">
         <v>116</v>
       </c>
@@ -2422,16 +2885,16 @@
         <v>35</v>
       </c>
       <c r="G45" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H45" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I45" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:9" ht="12">
       <c r="A46" s="4" t="s">
         <v>118</v>
       </c>
@@ -2439,7 +2902,7 @@
         <v>33</v>
       </c>
       <c r="C46" s="7">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="D46" s="4">
         <v>11.57</v>
@@ -2451,16 +2914,16 @@
         <v>35</v>
       </c>
       <c r="G46" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H46" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I46" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:9" ht="12">
       <c r="A47" s="4" t="s">
         <v>119</v>
       </c>
@@ -2468,10 +2931,10 @@
         <v>46</v>
       </c>
       <c r="C47" s="7">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D47" s="4">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>120</v>
@@ -2480,16 +2943,16 @@
         <v>51</v>
       </c>
       <c r="G47" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H47" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I47" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:9" ht="12">
       <c r="A48" s="4" t="s">
         <v>121</v>
       </c>
@@ -2509,16 +2972,16 @@
         <v>35</v>
       </c>
       <c r="G48" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H48" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I48" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:9" ht="12">
       <c r="A49" s="4" t="s">
         <v>122</v>
       </c>
@@ -2538,16 +3001,16 @@
         <v>35</v>
       </c>
       <c r="G49" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H49" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I49" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:9" ht="12">
       <c r="A50" s="4" t="s">
         <v>124</v>
       </c>
@@ -2567,16 +3030,16 @@
         <v>35</v>
       </c>
       <c r="G50" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H50" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I50" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:9" ht="12">
       <c r="A51" s="4" t="s">
         <v>126</v>
       </c>
@@ -2596,16 +3059,16 @@
         <v>26</v>
       </c>
       <c r="G51" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H51" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I51" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:9" ht="12">
       <c r="A52" s="4" t="s">
         <v>128</v>
       </c>
@@ -2625,16 +3088,16 @@
         <v>35</v>
       </c>
       <c r="G52" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H52" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I52" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:9" ht="12">
       <c r="A53" s="4" t="s">
         <v>130</v>
       </c>
@@ -2654,16 +3117,16 @@
         <v>51</v>
       </c>
       <c r="G53" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H53" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I53" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:9" ht="12">
       <c r="A54" s="4" t="s">
         <v>132</v>
       </c>
@@ -2683,16 +3146,16 @@
         <v>35</v>
       </c>
       <c r="G54" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H54" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I54" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:9" ht="12">
       <c r="A55" s="4" t="s">
         <v>134</v>
       </c>
@@ -2712,16 +3175,16 @@
         <v>26</v>
       </c>
       <c r="G55" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H55" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I55" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:9" ht="12">
       <c r="A56" s="4" t="s">
         <v>136</v>
       </c>
@@ -2729,7 +3192,7 @@
         <v>56</v>
       </c>
       <c r="C56" s="7">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D56" s="4">
         <v>11.27</v>
@@ -2741,16 +3204,16 @@
         <v>35</v>
       </c>
       <c r="G56" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H56" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I56" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:9" ht="12">
       <c r="A57" s="4" t="s">
         <v>138</v>
       </c>
@@ -2770,16 +3233,16 @@
         <v>26</v>
       </c>
       <c r="G57" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H57" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I57" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:9" ht="12">
       <c r="A58" s="4" t="s">
         <v>140</v>
       </c>
@@ -2799,16 +3262,16 @@
         <v>26</v>
       </c>
       <c r="G58" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H58" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I58" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:9" ht="12">
       <c r="A59" s="4" t="s">
         <v>142</v>
       </c>
@@ -2828,16 +3291,16 @@
         <v>26</v>
       </c>
       <c r="G59" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H59" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I59" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:9" ht="12">
       <c r="A60" s="4" t="s">
         <v>143</v>
       </c>
@@ -2857,16 +3320,16 @@
         <v>35</v>
       </c>
       <c r="G60" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H60" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I60" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:9" ht="12">
       <c r="A61" s="4" t="s">
         <v>145</v>
       </c>
@@ -2886,16 +3349,16 @@
         <v>35</v>
       </c>
       <c r="G61" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H61" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I61" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:9" ht="12">
       <c r="A62" s="4" t="s">
         <v>147</v>
       </c>
@@ -2915,16 +3378,16 @@
         <v>44</v>
       </c>
       <c r="G62" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H62" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I62" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:9" ht="12">
       <c r="A63" s="4" t="s">
         <v>149</v>
       </c>
@@ -2932,10 +3395,10 @@
         <v>33</v>
       </c>
       <c r="C63" s="7">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="D63" s="4">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>150</v>
@@ -2944,16 +3407,16 @@
         <v>35</v>
       </c>
       <c r="G63" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H63" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I63" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:9" ht="12">
       <c r="A64" s="4" t="s">
         <v>151</v>
       </c>
@@ -2973,16 +3436,16 @@
         <v>35</v>
       </c>
       <c r="G64" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H64" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I64" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:9" ht="12">
       <c r="A65" s="4" t="s">
         <v>152</v>
       </c>
@@ -2993,7 +3456,7 @@
         <v>0.49</v>
       </c>
       <c r="D65" s="4">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>153</v>
@@ -3002,16 +3465,16 @@
         <v>87</v>
       </c>
       <c r="G65" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H65" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I65" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:9" ht="12">
       <c r="A66" s="4" t="s">
         <v>154</v>
       </c>
@@ -3022,7 +3485,7 @@
         <v>0.74</v>
       </c>
       <c r="D66" s="4">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>91</v>
@@ -3031,16 +3494,16 @@
         <v>2</v>
       </c>
       <c r="G66" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H66" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I66" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:9" ht="12">
       <c r="A67" s="4" t="s">
         <v>155</v>
       </c>
@@ -3060,16 +3523,16 @@
         <v>26</v>
       </c>
       <c r="G67" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H67" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I67" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:9" ht="12">
       <c r="A68" s="4" t="s">
         <v>157</v>
       </c>
@@ -3089,16 +3552,16 @@
         <v>26</v>
       </c>
       <c r="G68" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H68" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I68" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:9" ht="12">
       <c r="A69" s="4" t="s">
         <v>159</v>
       </c>
@@ -3118,16 +3581,16 @@
         <v>87</v>
       </c>
       <c r="G69" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H69" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I69" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:9" ht="12">
       <c r="A70" s="4" t="s">
         <v>161</v>
       </c>
@@ -3147,16 +3610,16 @@
         <v>35</v>
       </c>
       <c r="G70" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H70" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I70" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:9" ht="12">
       <c r="A71" s="4" t="s">
         <v>163</v>
       </c>
@@ -3176,16 +3639,16 @@
         <v>87</v>
       </c>
       <c r="G71" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H71" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I71" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:9" ht="12">
       <c r="A72" s="4" t="s">
         <v>165</v>
       </c>
@@ -3205,16 +3668,16 @@
         <v>87</v>
       </c>
       <c r="G72" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H72" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I72" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:9" ht="12">
       <c r="A73" s="4" t="s">
         <v>167</v>
       </c>
@@ -3234,16 +3697,16 @@
         <v>35</v>
       </c>
       <c r="G73" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H73" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I73" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:9" ht="12">
       <c r="A74" s="4" t="s">
         <v>169</v>
       </c>
@@ -3263,16 +3726,16 @@
         <v>35</v>
       </c>
       <c r="G74" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H74" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I74" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:9" ht="12">
       <c r="A75" s="4" t="s">
         <v>171</v>
       </c>
@@ -3292,16 +3755,16 @@
         <v>87</v>
       </c>
       <c r="G75" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H75" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I75" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:9" ht="12">
       <c r="A76" s="4" t="s">
         <v>173</v>
       </c>
@@ -3321,16 +3784,16 @@
         <v>87</v>
       </c>
       <c r="G76" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H76" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I76" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:9" ht="12">
       <c r="A77" s="4" t="s">
         <v>175</v>
       </c>
@@ -3350,16 +3813,16 @@
         <v>35</v>
       </c>
       <c r="G77" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H77" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I77" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:9" ht="12">
       <c r="A78" s="4" t="s">
         <v>177</v>
       </c>
@@ -3367,10 +3830,10 @@
         <v>56</v>
       </c>
       <c r="C78" s="7">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="D78" s="4">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>178</v>
@@ -3379,16 +3842,16 @@
         <v>35</v>
       </c>
       <c r="G78" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H78" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I78" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:9" ht="12">
       <c r="A79" s="4" t="s">
         <v>179</v>
       </c>
@@ -3408,16 +3871,16 @@
         <v>35</v>
       </c>
       <c r="G79" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H79" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I79" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:9" ht="12">
       <c r="A80" s="4" t="s">
         <v>181</v>
       </c>
@@ -3437,16 +3900,16 @@
         <v>87</v>
       </c>
       <c r="G80" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H80" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I80" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:9" ht="12">
       <c r="A81" s="4" t="s">
         <v>183</v>
       </c>
@@ -3457,7 +3920,7 @@
         <v>0.17</v>
       </c>
       <c r="D81" s="4">
-        <v>10.21</v>
+        <v>10.210000000000001</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>184</v>
@@ -3466,16 +3929,16 @@
         <v>35</v>
       </c>
       <c r="G81" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H81" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I81" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:9" ht="12">
       <c r="A82" s="4" t="s">
         <v>185</v>
       </c>
@@ -3495,16 +3958,16 @@
         <v>35</v>
       </c>
       <c r="G82" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H82" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I82" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:9" ht="12">
       <c r="A83" s="4" t="s">
         <v>186</v>
       </c>
@@ -3524,16 +3987,16 @@
         <v>87</v>
       </c>
       <c r="G83" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H83" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I83" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:9" ht="12">
       <c r="A84" s="4" t="s">
         <v>188</v>
       </c>
@@ -3553,16 +4016,16 @@
         <v>35</v>
       </c>
       <c r="G84" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H84" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I84" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:9" ht="12">
       <c r="A85" s="4" t="s">
         <v>190</v>
       </c>
@@ -3570,7 +4033,7 @@
         <v>61</v>
       </c>
       <c r="C85" s="7">
-        <v>0.07</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D85" s="4">
         <v>6.75</v>
@@ -3582,16 +4045,16 @@
         <v>87</v>
       </c>
       <c r="G85" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H85" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I85" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:9" ht="12">
       <c r="A86" s="4" t="s">
         <v>192</v>
       </c>
@@ -3611,16 +4074,16 @@
         <v>194</v>
       </c>
       <c r="G86" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H86" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I86" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:9" ht="12">
       <c r="A87" s="4" t="s">
         <v>195</v>
       </c>
@@ -3628,7 +4091,7 @@
         <v>53</v>
       </c>
       <c r="C87" s="7">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D87" s="4">
         <v>7.57</v>
@@ -3640,16 +4103,16 @@
         <v>35</v>
       </c>
       <c r="G87" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H87" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I87" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:9" ht="12">
       <c r="A88" s="4" t="s">
         <v>197</v>
       </c>
@@ -3669,16 +4132,16 @@
         <v>198</v>
       </c>
       <c r="G88" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H88" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I88" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:9" ht="12">
       <c r="A89" s="4" t="s">
         <v>199</v>
       </c>
@@ -3698,16 +4161,16 @@
         <v>87</v>
       </c>
       <c r="G89" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H89" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I89" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:9" ht="12">
       <c r="A90" s="4" t="s">
         <v>201</v>
       </c>
@@ -3727,16 +4190,16 @@
         <v>194</v>
       </c>
       <c r="G90" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H90" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I90" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:9" ht="12">
       <c r="A91" s="4" t="s">
         <v>203</v>
       </c>
@@ -3756,16 +4219,16 @@
         <v>35</v>
       </c>
       <c r="G91" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H91" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I91" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:9" ht="12">
       <c r="A92" s="4" t="s">
         <v>205</v>
       </c>
@@ -3788,7 +4251,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:9" ht="12">
       <c r="A93" s="4" t="s">
         <v>208</v>
       </c>
@@ -3811,7 +4274,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:9" ht="12">
       <c r="A94" s="4" t="s">
         <v>210</v>
       </c>
@@ -3834,7 +4297,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:9" ht="12">
       <c r="A95" s="4" t="s">
         <v>213</v>
       </c>
@@ -3857,7 +4320,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:9" ht="12">
       <c r="A96" s="4" t="s">
         <v>215</v>
       </c>
@@ -3880,7 +4343,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:9" ht="12">
       <c r="A97" s="4" t="s">
         <v>217</v>
       </c>
@@ -3903,7 +4366,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:9" ht="12">
       <c r="A98" s="4" t="s">
         <v>219</v>
       </c>
@@ -3917,16 +4380,16 @@
         <v>211</v>
       </c>
       <c r="G98" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H98" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I98" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:9" ht="12">
       <c r="A99" s="4" t="s">
         <v>220</v>
       </c>
@@ -3940,16 +4403,16 @@
         <v>211</v>
       </c>
       <c r="G99" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H99" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I99" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:9" ht="12">
       <c r="A100" s="4" t="s">
         <v>221</v>
       </c>
@@ -3972,7 +4435,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:9" ht="12">
       <c r="A101" s="4" t="s">
         <v>223</v>
       </c>
@@ -3986,16 +4449,16 @@
         <v>224</v>
       </c>
       <c r="G101" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H101" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I101" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:9" ht="12">
       <c r="A102" s="4" t="s">
         <v>225</v>
       </c>
@@ -4018,7 +4481,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:9" ht="12">
       <c r="A103" s="4" t="s">
         <v>226</v>
       </c>
@@ -4041,7 +4504,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:9" ht="12">
       <c r="A104" s="4" t="s">
         <v>228</v>
       </c>
@@ -4064,7 +4527,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:9" ht="12">
       <c r="A105" s="4" t="s">
         <v>231</v>
       </c>
@@ -4087,7 +4550,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:9" ht="12">
       <c r="A106" s="4" t="s">
         <v>233</v>
       </c>
@@ -4110,7 +4573,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:9" ht="12">
       <c r="A107" s="4" t="s">
         <v>235</v>
       </c>
@@ -4124,16 +4587,16 @@
         <v>211</v>
       </c>
       <c r="G107" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H107" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I107" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:9" ht="12">
       <c r="A108" s="4" t="s">
         <v>236</v>
       </c>
@@ -4156,7 +4619,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:9" ht="12">
       <c r="A109" s="4" t="s">
         <v>237</v>
       </c>
@@ -4179,7 +4642,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:9" ht="12">
       <c r="A110" s="4" t="s">
         <v>239</v>
       </c>
@@ -4193,16 +4656,16 @@
         <v>211</v>
       </c>
       <c r="G110" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H110" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I110" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:9" ht="12">
       <c r="A111" s="4" t="s">
         <v>240</v>
       </c>
@@ -4225,7 +4688,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:9" ht="12">
       <c r="A112" s="4" t="s">
         <v>241</v>
       </c>
@@ -4248,7 +4711,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:9" ht="12">
       <c r="A113" s="4" t="s">
         <v>243</v>
       </c>
@@ -4271,7 +4734,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:9" ht="12">
       <c r="A114" s="4" t="s">
         <v>244</v>
       </c>
@@ -4285,16 +4748,16 @@
         <v>211</v>
       </c>
       <c r="G114" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H114" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I114" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:9" ht="12">
       <c r="A115" s="4" t="s">
         <v>245</v>
       </c>
@@ -4317,7 +4780,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:9" ht="12">
       <c r="A116" s="4" t="s">
         <v>246</v>
       </c>
@@ -4340,7 +4803,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:9" ht="12">
       <c r="A117" s="4" t="s">
         <v>248</v>
       </c>
@@ -4354,16 +4817,16 @@
         <v>211</v>
       </c>
       <c r="G117" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H117" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I117" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:9" ht="12">
       <c r="A118" s="4" t="s">
         <v>249</v>
       </c>
@@ -4377,16 +4840,16 @@
         <v>211</v>
       </c>
       <c r="G118" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H118" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I118" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:9" ht="12">
       <c r="A119" s="4" t="s">
         <v>250</v>
       </c>
@@ -4400,16 +4863,16 @@
         <v>211</v>
       </c>
       <c r="G119" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H119" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I119" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:9" ht="12">
       <c r="A120" s="4" t="s">
         <v>251</v>
       </c>
@@ -4432,7 +4895,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:9" ht="12">
       <c r="A121" s="4" t="s">
         <v>253</v>
       </c>
@@ -4440,7 +4903,7 @@
         <v>33</v>
       </c>
       <c r="D121" s="4">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="E121" s="4" t="s">
         <v>254</v>
@@ -4455,7 +4918,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:9" ht="12">
       <c r="A122" s="4" t="s">
         <v>255</v>
       </c>
@@ -4478,7 +4941,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:9" ht="12">
       <c r="A123" s="4" t="s">
         <v>256</v>
       </c>
@@ -4486,7 +4949,7 @@
         <v>53</v>
       </c>
       <c r="D123" s="4">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="E123" s="4" t="s">
         <v>257</v>
@@ -4501,7 +4964,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:9" ht="12">
       <c r="A124" s="4" t="s">
         <v>258</v>
       </c>
@@ -4524,7 +4987,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:9" ht="12">
       <c r="A125" s="4" t="s">
         <v>260</v>
       </c>
@@ -4547,7 +5010,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:9" ht="12">
       <c r="A126" s="4" t="s">
         <v>261</v>
       </c>
@@ -4570,7 +5033,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:9" ht="12">
       <c r="A127" s="4" t="s">
         <v>263</v>
       </c>
@@ -4584,16 +5047,16 @@
         <v>252</v>
       </c>
       <c r="G127" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H127" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I127" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:9" ht="12">
       <c r="A128" s="4" t="s">
         <v>264</v>
       </c>
@@ -4616,7 +5079,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:9" ht="12">
       <c r="A129" s="4" t="s">
         <v>265</v>
       </c>
@@ -4639,7 +5102,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:9" ht="12">
       <c r="A130" s="4" t="s">
         <v>267</v>
       </c>
@@ -4653,16 +5116,16 @@
         <v>66</v>
       </c>
       <c r="G130" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H130" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I130" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:9" ht="12">
       <c r="A131" s="4" t="s">
         <v>268</v>
       </c>
@@ -4676,16 +5139,16 @@
         <v>211</v>
       </c>
       <c r="G131" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H131" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I131" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:9" ht="12">
       <c r="A132" s="4" t="s">
         <v>269</v>
       </c>
@@ -4708,7 +5171,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:9" ht="12">
       <c r="A133" s="4" t="s">
         <v>271</v>
       </c>
@@ -4731,7 +5194,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:9" ht="12">
       <c r="A134" s="4" t="s">
         <v>273</v>
       </c>
@@ -4754,7 +5217,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:9" ht="12">
       <c r="A135" s="4" t="s">
         <v>275</v>
       </c>
@@ -4777,7 +5240,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:9" ht="12">
       <c r="A136" s="4" t="s">
         <v>276</v>
       </c>
@@ -4791,16 +5254,16 @@
         <v>277</v>
       </c>
       <c r="G136" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H136" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I136" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:9" ht="12">
       <c r="A137" s="4" t="s">
         <v>278</v>
       </c>
@@ -4814,21 +5277,21 @@
         <v>279</v>
       </c>
       <c r="G137" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H137" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I137" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:9" ht="12">
       <c r="A138" s="4" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:9" ht="12">
       <c r="A139" s="4" t="s">
         <v>281</v>
       </c>
@@ -4836,7 +5299,7 @@
         <v>56</v>
       </c>
       <c r="D139" s="4">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="E139" s="4" t="s">
         <v>211</v>
@@ -4851,7 +5314,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:9" ht="12">
       <c r="A140" s="4" t="s">
         <v>282</v>
       </c>
@@ -4874,7 +5337,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:9" ht="12">
       <c r="A141" s="4" t="s">
         <v>284</v>
       </c>
@@ -4897,7 +5360,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:9" ht="12">
       <c r="A142" s="4" t="s">
         <v>286</v>
       </c>
@@ -4920,7 +5383,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:9" ht="12">
       <c r="A143" s="4" t="s">
         <v>288</v>
       </c>
@@ -4934,16 +5397,16 @@
         <v>289</v>
       </c>
       <c r="G143" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H143" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I143" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:9" ht="12">
       <c r="A144" s="4" t="s">
         <v>290</v>
       </c>
@@ -4966,7 +5429,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:9" ht="12">
       <c r="A145" s="4" t="s">
         <v>291</v>
       </c>
@@ -4989,7 +5452,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:9" ht="12">
       <c r="A146" s="4" t="s">
         <v>293</v>
       </c>
@@ -5012,7 +5475,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:9" ht="12">
       <c r="A147" s="4" t="s">
         <v>294</v>
       </c>
@@ -5026,21 +5489,21 @@
         <v>295</v>
       </c>
       <c r="G147" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H147" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I147" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:9" ht="12">
       <c r="A148" s="4" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:9" ht="12">
       <c r="A149" s="4" t="s">
         <v>297</v>
       </c>
@@ -5054,16 +5517,16 @@
         <v>252</v>
       </c>
       <c r="G149" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H149" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I149" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:9" ht="12">
       <c r="A150" s="4" t="s">
         <v>298</v>
       </c>
@@ -5077,16 +5540,16 @@
         <v>211</v>
       </c>
       <c r="G150" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H150" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I150" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:9" ht="12">
       <c r="A151" s="4" t="s">
         <v>299</v>
       </c>
@@ -5100,16 +5563,16 @@
         <v>300</v>
       </c>
       <c r="G151" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H151" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I151" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:9" ht="12">
       <c r="A152" s="4" t="s">
         <v>301</v>
       </c>
@@ -5132,7 +5595,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:9" ht="12">
       <c r="A153" s="4" t="s">
         <v>303</v>
       </c>
@@ -5155,7 +5618,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:9" ht="12">
       <c r="A154" s="4" t="s">
         <v>304</v>
       </c>
@@ -5169,16 +5632,16 @@
         <v>211</v>
       </c>
       <c r="G154" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H154" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I154" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:9" ht="12">
       <c r="A155" s="4" t="s">
         <v>305</v>
       </c>
@@ -5201,7 +5664,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:9" ht="12">
       <c r="A156" s="4" t="s">
         <v>306</v>
       </c>
@@ -5224,7 +5687,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:9" ht="12">
       <c r="A157" s="4" t="s">
         <v>307</v>
       </c>
@@ -5247,7 +5710,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:9" ht="12">
       <c r="A158" s="4" t="s">
         <v>308</v>
       </c>
@@ -5270,7 +5733,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:9" ht="12">
       <c r="A159" s="4" t="s">
         <v>310</v>
       </c>
@@ -5278,7 +5741,7 @@
         <v>56</v>
       </c>
       <c r="D159" s="4">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="E159" s="4" t="s">
         <v>311</v>
@@ -5293,7 +5756,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:9" ht="12">
       <c r="A160" s="4" t="s">
         <v>312</v>
       </c>
@@ -5301,7 +5764,7 @@
         <v>61</v>
       </c>
       <c r="D160" s="4">
-        <v>8.7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="E160" s="4" t="s">
         <v>211</v>
@@ -5316,7 +5779,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:9" ht="12">
       <c r="A161" s="4" t="s">
         <v>313</v>
       </c>
@@ -5339,7 +5802,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:9" ht="12">
       <c r="A162" s="4" t="s">
         <v>314</v>
       </c>
@@ -5347,7 +5810,7 @@
         <v>56</v>
       </c>
       <c r="D162" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E162" s="4" t="s">
         <v>164</v>
@@ -5362,7 +5825,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:9" ht="12">
       <c r="A163" s="4" t="s">
         <v>315</v>
       </c>
@@ -5385,7 +5848,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:9" ht="12">
       <c r="A164" s="4" t="s">
         <v>316</v>
       </c>
@@ -5393,7 +5856,7 @@
         <v>29</v>
       </c>
       <c r="D164" s="4">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="E164" s="4" t="s">
         <v>317</v>
@@ -5408,7 +5871,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:9" ht="12">
       <c r="A165" s="4" t="s">
         <v>318</v>
       </c>
@@ -5431,7 +5894,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:9" ht="12">
       <c r="A166" s="4" t="s">
         <v>320</v>
       </c>
@@ -5454,7 +5917,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:9" ht="12">
       <c r="A167" s="4" t="s">
         <v>321</v>
       </c>
@@ -5462,7 +5925,7 @@
         <v>33</v>
       </c>
       <c r="D167" s="4">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="E167" s="4" t="s">
         <v>322</v>
@@ -5477,7 +5940,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:9" ht="12">
       <c r="A168" s="4" t="s">
         <v>323</v>
       </c>
@@ -5500,7 +5963,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:9" ht="12">
       <c r="A169" s="4" t="s">
         <v>325</v>
       </c>
@@ -5514,16 +5977,16 @@
         <v>211</v>
       </c>
       <c r="G169" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H169" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I169" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:9" ht="12">
       <c r="A170" s="4" t="s">
         <v>326</v>
       </c>
@@ -5537,16 +6000,16 @@
         <v>327</v>
       </c>
       <c r="G170" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H170" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I170" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:9" ht="12">
       <c r="A171" s="4" t="s">
         <v>328</v>
       </c>
@@ -5560,16 +6023,16 @@
         <v>329</v>
       </c>
       <c r="G171" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H171" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I171" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:9" ht="12">
       <c r="A172" s="4" t="s">
         <v>330</v>
       </c>
@@ -5592,7 +6055,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:9" ht="12">
       <c r="A173" s="4" t="s">
         <v>332</v>
       </c>
@@ -5615,7 +6078,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:9" ht="12">
       <c r="A174" s="4" t="s">
         <v>334</v>
       </c>
@@ -5629,16 +6092,16 @@
         <v>335</v>
       </c>
       <c r="G174" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H174" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I174" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:9" ht="12">
       <c r="A175" s="4" t="s">
         <v>336</v>
       </c>
@@ -5652,16 +6115,16 @@
         <v>337</v>
       </c>
       <c r="G175" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H175" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I175" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:9" ht="12">
       <c r="A176" s="4" t="s">
         <v>338</v>
       </c>
@@ -5684,7 +6147,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:9" ht="12">
       <c r="A177" s="4" t="s">
         <v>340</v>
       </c>
@@ -5692,7 +6155,7 @@
         <v>33</v>
       </c>
       <c r="D177" s="4">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="E177" s="4" t="s">
         <v>341</v>
@@ -5707,7 +6170,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:9" ht="12">
       <c r="A178" s="4" t="s">
         <v>342</v>
       </c>
@@ -5731,6 +6194,6189 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N174"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="10.83203125" style="8"/>
+    <col min="5" max="5" width="13.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2" s="4">
+        <v>12.52</v>
+      </c>
+      <c r="E2" s="11">
+        <v>623</v>
+      </c>
+      <c r="F2" s="11">
+        <v>324</v>
+      </c>
+      <c r="G2" s="4">
+        <v>2</v>
+      </c>
+      <c r="H2" s="4">
+        <v>3</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3">
+        <v>70</v>
+      </c>
+      <c r="D3" s="4">
+        <v>14</v>
+      </c>
+      <c r="E3" s="11">
+        <v>833</v>
+      </c>
+      <c r="F3" s="11">
+        <v>324</v>
+      </c>
+      <c r="G3" s="4">
+        <v>2</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="8"/>
+      <c r="M3" s="8"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4">
+        <v>80</v>
+      </c>
+      <c r="D4" s="4">
+        <v>12.92</v>
+      </c>
+      <c r="E4" s="11">
+        <v>618</v>
+      </c>
+      <c r="F4" s="11">
+        <v>466</v>
+      </c>
+      <c r="G4" s="4">
+        <v>2</v>
+      </c>
+      <c r="H4" s="4">
+        <v>2</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="8"/>
+      <c r="M4" s="8"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5">
+        <v>61</v>
+      </c>
+      <c r="D5" s="4">
+        <v>13.84</v>
+      </c>
+      <c r="E5" s="11">
+        <v>435</v>
+      </c>
+      <c r="F5" s="11">
+        <v>324</v>
+      </c>
+      <c r="G5" s="4">
+        <v>2</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="8"/>
+      <c r="M5" s="8"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6">
+        <v>69</v>
+      </c>
+      <c r="D6" s="4">
+        <v>12.49</v>
+      </c>
+      <c r="E6" s="11">
+        <v>750</v>
+      </c>
+      <c r="F6" s="11">
+        <v>324</v>
+      </c>
+      <c r="G6" s="4">
+        <v>2</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="8"/>
+      <c r="M6" s="8"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7">
+        <v>82</v>
+      </c>
+      <c r="D7" s="4">
+        <v>11.66</v>
+      </c>
+      <c r="E7" s="11">
+        <v>800</v>
+      </c>
+      <c r="F7" s="11">
+        <v>324</v>
+      </c>
+      <c r="G7" s="4">
+        <v>2</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="8"/>
+      <c r="M7" s="8"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8">
+        <v>79</v>
+      </c>
+      <c r="D8" s="4">
+        <v>12.5</v>
+      </c>
+      <c r="E8" s="11">
+        <v>465</v>
+      </c>
+      <c r="F8" s="11">
+        <v>674</v>
+      </c>
+      <c r="G8" s="4">
+        <v>2</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="8"/>
+      <c r="M8" s="8"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9">
+        <v>92</v>
+      </c>
+      <c r="D9" s="4">
+        <v>13</v>
+      </c>
+      <c r="E9" s="11">
+        <v>740</v>
+      </c>
+      <c r="F9" s="11">
+        <v>324</v>
+      </c>
+      <c r="G9" s="4">
+        <v>2</v>
+      </c>
+      <c r="H9" s="4">
+        <v>2</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" s="8"/>
+      <c r="M9" s="8"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10">
+        <v>90</v>
+      </c>
+      <c r="D10" s="4">
+        <v>11.67</v>
+      </c>
+      <c r="E10" s="11">
+        <v>530</v>
+      </c>
+      <c r="F10" s="11">
+        <v>466</v>
+      </c>
+      <c r="G10" s="4">
+        <v>2</v>
+      </c>
+      <c r="H10" s="4">
+        <v>3</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="8"/>
+      <c r="M10" s="8"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11">
+        <v>94</v>
+      </c>
+      <c r="D11" s="4">
+        <v>12.53</v>
+      </c>
+      <c r="E11" s="11">
+        <v>465</v>
+      </c>
+      <c r="F11" s="11">
+        <v>405</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4">
+        <v>1</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" s="8"/>
+      <c r="M11" s="8"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12">
+        <v>45</v>
+      </c>
+      <c r="D12" s="4">
+        <v>12.58</v>
+      </c>
+      <c r="E12" s="11">
+        <v>650</v>
+      </c>
+      <c r="F12" s="11">
+        <v>466</v>
+      </c>
+      <c r="G12" s="4">
+        <v>3</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" s="8"/>
+      <c r="M12" s="8"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13">
+        <v>15</v>
+      </c>
+      <c r="D13" s="4">
+        <v>13.92</v>
+      </c>
+      <c r="E13" s="11">
+        <v>350</v>
+      </c>
+      <c r="F13" s="11">
+        <v>324</v>
+      </c>
+      <c r="G13" s="4">
+        <v>2</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13" s="8"/>
+      <c r="M13" s="8"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14">
+        <v>56.000000000000007</v>
+      </c>
+      <c r="D14" s="4">
+        <v>11.42</v>
+      </c>
+      <c r="E14" s="11">
+        <v>510</v>
+      </c>
+      <c r="F14" s="11">
+        <v>324</v>
+      </c>
+      <c r="G14" s="4">
+        <v>2</v>
+      </c>
+      <c r="H14" s="4">
+        <v>2</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14" s="8"/>
+      <c r="M14" s="8"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15">
+        <v>37</v>
+      </c>
+      <c r="D15" s="4">
+        <v>12.63</v>
+      </c>
+      <c r="E15" s="11">
+        <v>423</v>
+      </c>
+      <c r="F15" s="11">
+        <v>324</v>
+      </c>
+      <c r="G15" s="4">
+        <v>2</v>
+      </c>
+      <c r="H15" s="4">
+        <v>3</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" s="8"/>
+      <c r="M15" s="8"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16">
+        <v>87</v>
+      </c>
+      <c r="D16" s="4">
+        <v>11.81</v>
+      </c>
+      <c r="E16" s="11">
+        <v>715</v>
+      </c>
+      <c r="F16" s="11">
+        <v>405</v>
+      </c>
+      <c r="G16" s="4">
+        <v>2</v>
+      </c>
+      <c r="H16" s="4">
+        <v>2</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K16" s="8"/>
+      <c r="M16" s="8"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17">
+        <v>16</v>
+      </c>
+      <c r="D17" s="4">
+        <v>16.5</v>
+      </c>
+      <c r="E17" s="11">
+        <v>588</v>
+      </c>
+      <c r="F17" s="11">
+        <v>324</v>
+      </c>
+      <c r="G17" s="4">
+        <v>2</v>
+      </c>
+      <c r="H17" s="4">
+        <v>3</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K17" s="8"/>
+      <c r="M17" s="8"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18">
+        <v>64</v>
+      </c>
+      <c r="D18" s="4">
+        <v>11.05</v>
+      </c>
+      <c r="E18" s="11">
+        <v>640</v>
+      </c>
+      <c r="F18" s="11">
+        <v>324</v>
+      </c>
+      <c r="G18" s="4">
+        <v>2</v>
+      </c>
+      <c r="H18" s="4">
+        <v>2</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K18" s="8"/>
+      <c r="M18" s="8"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19">
+        <v>34</v>
+      </c>
+      <c r="D19" s="4">
+        <v>12.87</v>
+      </c>
+      <c r="E19" s="11">
+        <v>915</v>
+      </c>
+      <c r="F19" s="11">
+        <v>324</v>
+      </c>
+      <c r="G19" s="4">
+        <v>2</v>
+      </c>
+      <c r="H19" s="4">
+        <v>2</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K19" s="8"/>
+      <c r="M19" s="8"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20">
+        <v>86</v>
+      </c>
+      <c r="D20" s="4">
+        <v>12.54</v>
+      </c>
+      <c r="E20" s="11">
+        <v>615</v>
+      </c>
+      <c r="F20" s="11">
+        <v>466</v>
+      </c>
+      <c r="G20" s="4">
+        <v>2</v>
+      </c>
+      <c r="H20" s="4">
+        <v>1</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K20" s="8"/>
+      <c r="M20" s="8"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21">
+        <v>41</v>
+      </c>
+      <c r="D21" s="4">
+        <v>12.8</v>
+      </c>
+      <c r="E21" s="11">
+        <v>538</v>
+      </c>
+      <c r="F21" s="11">
+        <v>324</v>
+      </c>
+      <c r="G21" s="4">
+        <v>2</v>
+      </c>
+      <c r="H21" s="4">
+        <v>1</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K21" s="8"/>
+      <c r="M21" s="8"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22">
+        <v>54</v>
+      </c>
+      <c r="D22" s="4">
+        <v>13.51</v>
+      </c>
+      <c r="E22" s="11">
+        <v>1058</v>
+      </c>
+      <c r="F22" s="11">
+        <v>324</v>
+      </c>
+      <c r="G22" s="4">
+        <v>2</v>
+      </c>
+      <c r="H22" s="4">
+        <v>2</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K22" s="8"/>
+      <c r="M22" s="8"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23">
+        <v>99</v>
+      </c>
+      <c r="D23" s="4">
+        <v>11.95</v>
+      </c>
+      <c r="E23" s="11">
+        <v>900</v>
+      </c>
+      <c r="F23" s="11">
+        <v>466</v>
+      </c>
+      <c r="G23" s="4">
+        <v>2</v>
+      </c>
+      <c r="H23" s="4">
+        <v>2</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K23" s="8"/>
+      <c r="M23" s="8"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24">
+        <v>45</v>
+      </c>
+      <c r="D24" s="4">
+        <v>12.21</v>
+      </c>
+      <c r="E24" s="11">
+        <v>693</v>
+      </c>
+      <c r="F24" s="11">
+        <v>324</v>
+      </c>
+      <c r="G24" s="4">
+        <v>1</v>
+      </c>
+      <c r="H24" s="4">
+        <v>1</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K24" s="8"/>
+      <c r="M24" s="8"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25">
+        <v>84</v>
+      </c>
+      <c r="D25" s="4">
+        <v>11.46</v>
+      </c>
+      <c r="E25" s="11">
+        <v>545</v>
+      </c>
+      <c r="F25" s="11">
+        <v>971</v>
+      </c>
+      <c r="G25" s="4">
+        <v>2</v>
+      </c>
+      <c r="H25" s="4">
+        <v>1</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K25" s="8"/>
+      <c r="M25" s="8"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26">
+        <v>49</v>
+      </c>
+      <c r="D26" s="4">
+        <v>12.42</v>
+      </c>
+      <c r="E26" s="11">
+        <v>294</v>
+      </c>
+      <c r="F26" s="11">
+        <v>710</v>
+      </c>
+      <c r="G26" s="4">
+        <v>2</v>
+      </c>
+      <c r="H26" s="4">
+        <v>1</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K26" s="8"/>
+      <c r="M26" s="8"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27">
+        <v>43</v>
+      </c>
+      <c r="D27" s="4">
+        <v>14.42</v>
+      </c>
+      <c r="E27" s="11">
+        <v>1050</v>
+      </c>
+      <c r="F27" s="11">
+        <v>466</v>
+      </c>
+      <c r="G27" s="4">
+        <v>2</v>
+      </c>
+      <c r="H27" s="4">
+        <v>1</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K27" s="8"/>
+      <c r="M27" s="8"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28">
+        <v>93</v>
+      </c>
+      <c r="D28" s="4">
+        <v>12.04</v>
+      </c>
+      <c r="E28" s="11">
+        <v>810</v>
+      </c>
+      <c r="F28" s="11">
+        <v>466</v>
+      </c>
+      <c r="G28" s="4">
+        <v>2</v>
+      </c>
+      <c r="H28" s="4">
+        <v>1</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K28" s="8"/>
+      <c r="M28" s="8"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29">
+        <v>25</v>
+      </c>
+      <c r="D29" s="4">
+        <v>12.25</v>
+      </c>
+      <c r="E29" s="11">
+        <v>650</v>
+      </c>
+      <c r="F29" s="11">
+        <v>270</v>
+      </c>
+      <c r="G29" s="4">
+        <v>1</v>
+      </c>
+      <c r="H29" s="4">
+        <v>3</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K29" s="8"/>
+      <c r="M29" s="8"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30">
+        <v>77</v>
+      </c>
+      <c r="D30" s="4">
+        <v>9.67</v>
+      </c>
+      <c r="E30" s="11">
+        <v>670</v>
+      </c>
+      <c r="F30" s="11">
+        <v>324</v>
+      </c>
+      <c r="G30" s="4">
+        <v>2</v>
+      </c>
+      <c r="H30" s="4">
+        <v>2</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K30" s="8"/>
+      <c r="M30" s="8"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31">
+        <v>13</v>
+      </c>
+      <c r="D31" s="4">
+        <v>13.2</v>
+      </c>
+      <c r="E31" s="11">
+        <v>583</v>
+      </c>
+      <c r="F31" s="11">
+        <v>324</v>
+      </c>
+      <c r="G31" s="4">
+        <v>1</v>
+      </c>
+      <c r="H31" s="4">
+        <v>1</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K31" s="8"/>
+      <c r="M31" s="8"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32">
+        <v>52</v>
+      </c>
+      <c r="D32" s="4">
+        <v>12.28</v>
+      </c>
+      <c r="E32" s="11">
+        <v>565</v>
+      </c>
+      <c r="F32" s="11">
+        <v>466</v>
+      </c>
+      <c r="G32" s="4">
+        <v>2</v>
+      </c>
+      <c r="H32" s="4">
+        <v>2</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K32" s="8"/>
+      <c r="M32" s="8"/>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33">
+        <v>75</v>
+      </c>
+      <c r="D33" s="4">
+        <v>12.6</v>
+      </c>
+      <c r="E33" s="11">
+        <v>566</v>
+      </c>
+      <c r="F33" s="11">
+        <v>324</v>
+      </c>
+      <c r="G33" s="4">
+        <v>1</v>
+      </c>
+      <c r="H33" s="4">
+        <v>3</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K33" s="8"/>
+      <c r="M33" s="8"/>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34">
+        <v>61</v>
+      </c>
+      <c r="D34" s="4">
+        <v>11.63</v>
+      </c>
+      <c r="E34" s="11">
+        <v>567</v>
+      </c>
+      <c r="F34" s="11">
+        <v>466</v>
+      </c>
+      <c r="G34" s="4">
+        <v>2</v>
+      </c>
+      <c r="H34" s="4">
+        <v>1</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K34" s="8"/>
+      <c r="M34" s="8"/>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35">
+        <v>56.000000000000007</v>
+      </c>
+      <c r="D35" s="4">
+        <v>11.83</v>
+      </c>
+      <c r="E35" s="11">
+        <v>568</v>
+      </c>
+      <c r="F35" s="11">
+        <v>466</v>
+      </c>
+      <c r="G35" s="4">
+        <v>2</v>
+      </c>
+      <c r="H35" s="4">
+        <v>2</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K35" s="8"/>
+      <c r="M35" s="8"/>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36">
+        <v>25</v>
+      </c>
+      <c r="D36" s="4">
+        <v>12</v>
+      </c>
+      <c r="E36" s="11">
+        <v>569</v>
+      </c>
+      <c r="F36" s="11">
+        <v>324</v>
+      </c>
+      <c r="G36" s="4">
+        <v>2</v>
+      </c>
+      <c r="H36" s="4">
+        <v>3</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K36" s="8"/>
+      <c r="M36" s="8"/>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37">
+        <v>97</v>
+      </c>
+      <c r="D37" s="4">
+        <v>12.04</v>
+      </c>
+      <c r="E37" s="11">
+        <v>570</v>
+      </c>
+      <c r="F37" s="11">
+        <v>466</v>
+      </c>
+      <c r="G37" s="4">
+        <v>2</v>
+      </c>
+      <c r="H37" s="4">
+        <v>1</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K37" s="8"/>
+      <c r="M37" s="8"/>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38">
+        <v>68</v>
+      </c>
+      <c r="D38" s="4">
+        <v>12.44</v>
+      </c>
+      <c r="E38" s="11">
+        <v>571</v>
+      </c>
+      <c r="F38" s="11">
+        <v>710</v>
+      </c>
+      <c r="G38" s="4">
+        <v>2</v>
+      </c>
+      <c r="H38" s="4">
+        <v>1</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K38" s="8"/>
+      <c r="M38" s="8"/>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39">
+        <v>9</v>
+      </c>
+      <c r="D39" s="4">
+        <v>12.3</v>
+      </c>
+      <c r="E39" s="11">
+        <v>572</v>
+      </c>
+      <c r="F39" s="11">
+        <v>324</v>
+      </c>
+      <c r="G39" s="4">
+        <v>1</v>
+      </c>
+      <c r="H39" s="4">
+        <v>1</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K39" s="8"/>
+      <c r="M39" s="8"/>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40">
+        <v>75</v>
+      </c>
+      <c r="D40" s="4">
+        <v>9.48</v>
+      </c>
+      <c r="E40" s="11">
+        <v>573</v>
+      </c>
+      <c r="F40" s="11">
+        <v>466</v>
+      </c>
+      <c r="G40" s="4">
+        <v>2</v>
+      </c>
+      <c r="H40" s="4">
+        <v>1</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K40" s="8"/>
+      <c r="M40" s="8"/>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41">
+        <v>22</v>
+      </c>
+      <c r="D41" s="4">
+        <v>12.31</v>
+      </c>
+      <c r="E41" s="11">
+        <v>574</v>
+      </c>
+      <c r="F41" s="11">
+        <v>324</v>
+      </c>
+      <c r="G41" s="4">
+        <v>2</v>
+      </c>
+      <c r="H41" s="4">
+        <v>2</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K41" s="8"/>
+      <c r="M41" s="8"/>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42">
+        <v>64</v>
+      </c>
+      <c r="D42" s="4">
+        <v>11.1</v>
+      </c>
+      <c r="E42" s="11">
+        <v>575</v>
+      </c>
+      <c r="F42" s="11">
+        <v>466</v>
+      </c>
+      <c r="G42" s="4">
+        <v>2</v>
+      </c>
+      <c r="H42" s="4">
+        <v>1</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K42" s="8"/>
+      <c r="M42" s="8"/>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43">
+        <v>56.000000000000007</v>
+      </c>
+      <c r="D43" s="4">
+        <v>11.57</v>
+      </c>
+      <c r="E43" s="11">
+        <v>576</v>
+      </c>
+      <c r="F43" s="11">
+        <v>466</v>
+      </c>
+      <c r="G43" s="4">
+        <v>2</v>
+      </c>
+      <c r="H43" s="4">
+        <v>1</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K43" s="8"/>
+      <c r="M43" s="8"/>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44">
+        <v>28.999999999999996</v>
+      </c>
+      <c r="D44" s="4">
+        <v>11</v>
+      </c>
+      <c r="E44" s="11">
+        <v>469</v>
+      </c>
+      <c r="F44" s="11">
+        <v>405</v>
+      </c>
+      <c r="G44" s="4">
+        <v>2</v>
+      </c>
+      <c r="H44" s="4">
+        <v>1</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K44" s="8"/>
+      <c r="M44" s="8"/>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45">
+        <v>70</v>
+      </c>
+      <c r="D45" s="4">
+        <v>11.17</v>
+      </c>
+      <c r="E45" s="11">
+        <v>650</v>
+      </c>
+      <c r="F45" s="11">
+        <v>466</v>
+      </c>
+      <c r="G45" s="4">
+        <v>1</v>
+      </c>
+      <c r="H45" s="4">
+        <v>1</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K45" s="8"/>
+      <c r="M45" s="8"/>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46">
+        <v>30</v>
+      </c>
+      <c r="D46" s="4">
+        <v>13.07</v>
+      </c>
+      <c r="E46" s="11">
+        <v>2083</v>
+      </c>
+      <c r="F46" s="11">
+        <v>466</v>
+      </c>
+      <c r="G46" s="4">
+        <v>2</v>
+      </c>
+      <c r="H46" s="4">
+        <v>2</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K46" s="8"/>
+      <c r="M46" s="8"/>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47">
+        <v>82</v>
+      </c>
+      <c r="D47" s="4">
+        <v>9.02</v>
+      </c>
+      <c r="E47" s="11">
+        <v>600</v>
+      </c>
+      <c r="F47" s="11">
+        <v>466</v>
+      </c>
+      <c r="G47" s="4">
+        <v>1</v>
+      </c>
+      <c r="H47" s="4">
+        <v>1</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K47" s="8"/>
+      <c r="M47" s="8"/>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48">
+        <v>31</v>
+      </c>
+      <c r="D48" s="4">
+        <v>10.92</v>
+      </c>
+      <c r="E48" s="11">
+        <v>690</v>
+      </c>
+      <c r="F48" s="11">
+        <v>324</v>
+      </c>
+      <c r="G48" s="4">
+        <v>2</v>
+      </c>
+      <c r="H48" s="4">
+        <v>1</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K48" s="8"/>
+      <c r="M48" s="8"/>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49">
+        <v>95</v>
+      </c>
+      <c r="D49" s="4">
+        <v>10.33</v>
+      </c>
+      <c r="E49" s="11">
+        <v>790</v>
+      </c>
+      <c r="F49" s="11">
+        <v>466</v>
+      </c>
+      <c r="G49" s="4">
+        <v>2</v>
+      </c>
+      <c r="H49" s="4">
+        <v>2</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K49" s="8"/>
+      <c r="M49" s="8"/>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C50">
+        <v>45</v>
+      </c>
+      <c r="D50" s="4">
+        <v>10.1</v>
+      </c>
+      <c r="E50" s="11">
+        <v>925</v>
+      </c>
+      <c r="F50" s="11">
+        <v>405</v>
+      </c>
+      <c r="G50" s="4">
+        <v>2</v>
+      </c>
+      <c r="H50" s="4">
+        <v>2</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K50" s="8"/>
+      <c r="M50" s="8"/>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C51">
+        <v>85</v>
+      </c>
+      <c r="D51" s="4">
+        <v>10.6</v>
+      </c>
+      <c r="E51" s="11">
+        <v>1070</v>
+      </c>
+      <c r="F51" s="11">
+        <v>466</v>
+      </c>
+      <c r="G51" s="4">
+        <v>2</v>
+      </c>
+      <c r="H51" s="4">
+        <v>1</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K51" s="8"/>
+      <c r="M51" s="8"/>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C52">
+        <v>48</v>
+      </c>
+      <c r="D52" s="4">
+        <v>11.29</v>
+      </c>
+      <c r="E52" s="11">
+        <v>1017</v>
+      </c>
+      <c r="F52" s="11">
+        <v>324</v>
+      </c>
+      <c r="G52" s="4">
+        <v>2</v>
+      </c>
+      <c r="H52" s="4">
+        <v>1</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K52" s="8"/>
+      <c r="M52" s="8"/>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C53">
+        <v>55.000000000000007</v>
+      </c>
+      <c r="D53" s="4">
+        <v>11.27</v>
+      </c>
+      <c r="E53" s="11">
+        <v>695</v>
+      </c>
+      <c r="F53" s="11">
+        <v>466</v>
+      </c>
+      <c r="G53" s="4">
+        <v>2</v>
+      </c>
+      <c r="H53" s="4">
+        <v>1</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K53" s="8"/>
+      <c r="M53" s="8"/>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C54">
+        <v>11</v>
+      </c>
+      <c r="D54" s="4">
+        <v>11.43</v>
+      </c>
+      <c r="E54" s="11">
+        <v>490</v>
+      </c>
+      <c r="F54" s="11">
+        <v>324</v>
+      </c>
+      <c r="G54" s="4">
+        <v>2</v>
+      </c>
+      <c r="H54" s="4">
+        <v>1</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K54" s="8"/>
+      <c r="M54" s="8"/>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55" s="4">
+        <v>13.58</v>
+      </c>
+      <c r="E55" s="11">
+        <v>940</v>
+      </c>
+      <c r="F55" s="11">
+        <v>324</v>
+      </c>
+      <c r="G55" s="4">
+        <v>2</v>
+      </c>
+      <c r="H55" s="4">
+        <v>2</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K55" s="8"/>
+      <c r="M55" s="8"/>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C56">
+        <v>24</v>
+      </c>
+      <c r="D56" s="4">
+        <v>10.02</v>
+      </c>
+      <c r="E56" s="11">
+        <v>800</v>
+      </c>
+      <c r="F56" s="11">
+        <v>324</v>
+      </c>
+      <c r="G56" s="4">
+        <v>2</v>
+      </c>
+      <c r="H56" s="4">
+        <v>3</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K56" s="8"/>
+      <c r="M56" s="8"/>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C57">
+        <v>37</v>
+      </c>
+      <c r="D57" s="4">
+        <v>12.05</v>
+      </c>
+      <c r="E57" s="11">
+        <v>1145</v>
+      </c>
+      <c r="F57" s="11">
+        <v>466</v>
+      </c>
+      <c r="G57" s="4">
+        <v>2</v>
+      </c>
+      <c r="H57" s="4">
+        <v>1</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K57" s="8"/>
+      <c r="M57" s="8"/>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C58">
+        <v>72</v>
+      </c>
+      <c r="D58" s="4">
+        <v>10.34</v>
+      </c>
+      <c r="E58" s="11">
+        <v>1335</v>
+      </c>
+      <c r="F58" s="11">
+        <v>466</v>
+      </c>
+      <c r="G58" s="4">
+        <v>2</v>
+      </c>
+      <c r="H58" s="4">
+        <v>1</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K58" s="8"/>
+      <c r="M58" s="8"/>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C59">
+        <v>89</v>
+      </c>
+      <c r="D59" s="4">
+        <v>12.25</v>
+      </c>
+      <c r="E59" s="11">
+        <v>587</v>
+      </c>
+      <c r="F59" s="11">
+        <v>674</v>
+      </c>
+      <c r="G59" s="4">
+        <v>2</v>
+      </c>
+      <c r="H59" s="4">
+        <v>1</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K59" s="8"/>
+      <c r="M59" s="8"/>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C60">
+        <v>56.000000000000007</v>
+      </c>
+      <c r="D60" s="4">
+        <v>10</v>
+      </c>
+      <c r="E60" s="11">
+        <v>1033</v>
+      </c>
+      <c r="F60" s="11">
+        <v>466</v>
+      </c>
+      <c r="G60" s="4">
+        <v>2</v>
+      </c>
+      <c r="H60" s="4">
+        <v>1</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K60" s="8"/>
+      <c r="M60" s="8"/>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C61">
+        <v>22</v>
+      </c>
+      <c r="D61" s="4">
+        <v>12.17</v>
+      </c>
+      <c r="E61" s="11">
+        <v>925</v>
+      </c>
+      <c r="F61" s="11">
+        <v>466</v>
+      </c>
+      <c r="G61" s="4">
+        <v>1</v>
+      </c>
+      <c r="H61" s="4">
+        <v>1</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K61" s="8"/>
+      <c r="M61" s="8"/>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C62">
+        <v>49</v>
+      </c>
+      <c r="D62" s="4">
+        <v>12</v>
+      </c>
+      <c r="E62" s="11">
+        <v>1525</v>
+      </c>
+      <c r="F62" s="11">
+        <v>710</v>
+      </c>
+      <c r="G62" s="4">
+        <v>1</v>
+      </c>
+      <c r="H62" s="4">
+        <v>1</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K62" s="8"/>
+      <c r="M62" s="8"/>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C63">
+        <v>74</v>
+      </c>
+      <c r="D63" s="4">
+        <v>10</v>
+      </c>
+      <c r="E63" s="11">
+        <v>810</v>
+      </c>
+      <c r="F63" s="11">
+        <v>1349</v>
+      </c>
+      <c r="G63" s="4">
+        <v>1</v>
+      </c>
+      <c r="H63" s="4">
+        <v>2</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K63" s="8"/>
+      <c r="M63" s="8"/>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C64">
+        <v>43</v>
+      </c>
+      <c r="D64" s="4">
+        <v>9.36</v>
+      </c>
+      <c r="E64" s="11">
+        <v>1175</v>
+      </c>
+      <c r="F64" s="11">
+        <v>324</v>
+      </c>
+      <c r="G64" s="4">
+        <v>2</v>
+      </c>
+      <c r="H64" s="4">
+        <v>1</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K64" s="8"/>
+      <c r="M64" s="8"/>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C65">
+        <v>18</v>
+      </c>
+      <c r="D65" s="4">
+        <v>10.69</v>
+      </c>
+      <c r="E65" s="11">
+        <v>829</v>
+      </c>
+      <c r="F65" s="11">
+        <v>324</v>
+      </c>
+      <c r="G65" s="4">
+        <v>1</v>
+      </c>
+      <c r="H65" s="4">
+        <v>2</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K65" s="8"/>
+      <c r="M65" s="8"/>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C66">
+        <v>91</v>
+      </c>
+      <c r="D66" s="4">
+        <v>9.11</v>
+      </c>
+      <c r="E66" s="11">
+        <v>1118</v>
+      </c>
+      <c r="F66" s="11">
+        <v>710</v>
+      </c>
+      <c r="G66" s="4">
+        <v>2</v>
+      </c>
+      <c r="H66" s="4">
+        <v>2</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K66" s="8"/>
+      <c r="M66" s="8"/>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="A67" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C67">
+        <v>61</v>
+      </c>
+      <c r="D67" s="4">
+        <v>9.4</v>
+      </c>
+      <c r="E67" s="11">
+        <v>1200</v>
+      </c>
+      <c r="F67" s="11">
+        <v>466</v>
+      </c>
+      <c r="G67" s="4">
+        <v>1</v>
+      </c>
+      <c r="H67" s="4">
+        <v>2</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K67" s="8"/>
+      <c r="M67" s="8"/>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68" s="4">
+        <v>11.92</v>
+      </c>
+      <c r="E68" s="11">
+        <v>890</v>
+      </c>
+      <c r="F68" s="11">
+        <v>710</v>
+      </c>
+      <c r="G68" s="4">
+        <v>1</v>
+      </c>
+      <c r="H68" s="4">
+        <v>1</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K68" s="8"/>
+      <c r="M68" s="8"/>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C69">
+        <v>64</v>
+      </c>
+      <c r="D69" s="4">
+        <v>9.32</v>
+      </c>
+      <c r="E69" s="11">
+        <v>1178</v>
+      </c>
+      <c r="F69" s="11">
+        <v>710</v>
+      </c>
+      <c r="G69" s="4">
+        <v>2</v>
+      </c>
+      <c r="H69" s="4">
+        <v>1</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K69" s="8"/>
+      <c r="M69" s="8"/>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="A70" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C70">
+        <v>98</v>
+      </c>
+      <c r="D70" s="4">
+        <v>9.73</v>
+      </c>
+      <c r="E70" s="11">
+        <v>820</v>
+      </c>
+      <c r="F70" s="11">
+        <v>466</v>
+      </c>
+      <c r="G70" s="4">
+        <v>2</v>
+      </c>
+      <c r="H70" s="4">
+        <v>2</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K70" s="8"/>
+      <c r="M70" s="8"/>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="A71" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C71">
+        <v>8</v>
+      </c>
+      <c r="D71" s="4">
+        <v>11.56</v>
+      </c>
+      <c r="E71" s="11">
+        <v>885</v>
+      </c>
+      <c r="F71" s="11">
+        <v>466</v>
+      </c>
+      <c r="G71" s="4">
+        <v>1</v>
+      </c>
+      <c r="H71" s="4">
+        <v>2</v>
+      </c>
+      <c r="I71" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K71" s="8"/>
+      <c r="M71" s="8"/>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="A72" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C72">
+        <v>21</v>
+      </c>
+      <c r="D72" s="4">
+        <v>11.19</v>
+      </c>
+      <c r="E72" s="11">
+        <v>832</v>
+      </c>
+      <c r="F72" s="11">
+        <v>710</v>
+      </c>
+      <c r="G72" s="4">
+        <v>1</v>
+      </c>
+      <c r="H72" s="4">
+        <v>1</v>
+      </c>
+      <c r="I72" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K72" s="8"/>
+      <c r="M72" s="8"/>
+    </row>
+    <row r="73" spans="1:13">
+      <c r="A73" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C73">
+        <v>31</v>
+      </c>
+      <c r="D73" s="4">
+        <v>10.16</v>
+      </c>
+      <c r="E73" s="11">
+        <v>1202</v>
+      </c>
+      <c r="F73" s="11">
+        <v>710</v>
+      </c>
+      <c r="G73" s="4">
+        <v>2</v>
+      </c>
+      <c r="H73" s="4">
+        <v>3</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K73" s="8"/>
+      <c r="M73" s="8"/>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C74">
+        <v>33</v>
+      </c>
+      <c r="D74" s="4">
+        <v>9.1</v>
+      </c>
+      <c r="E74" s="11">
+        <v>995</v>
+      </c>
+      <c r="F74" s="11">
+        <v>466</v>
+      </c>
+      <c r="G74" s="4">
+        <v>2</v>
+      </c>
+      <c r="H74" s="4">
+        <v>2</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K74" s="8"/>
+      <c r="M74" s="8"/>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="A75" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C75">
+        <v>28.000000000000004</v>
+      </c>
+      <c r="D75" s="4">
+        <v>9</v>
+      </c>
+      <c r="E75" s="11">
+        <v>1900</v>
+      </c>
+      <c r="F75" s="11">
+        <v>466</v>
+      </c>
+      <c r="G75" s="4">
+        <v>2</v>
+      </c>
+      <c r="H75" s="4">
+        <v>1</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K75" s="8"/>
+      <c r="M75" s="8"/>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="A76" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C76">
+        <v>6</v>
+      </c>
+      <c r="D76" s="4">
+        <v>9.08</v>
+      </c>
+      <c r="E76" s="11">
+        <v>675</v>
+      </c>
+      <c r="F76" s="11">
+        <v>466</v>
+      </c>
+      <c r="G76" s="4">
+        <v>1</v>
+      </c>
+      <c r="H76" s="4">
+        <v>2</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K76" s="8"/>
+      <c r="M76" s="8"/>
+    </row>
+    <row r="77" spans="1:13">
+      <c r="A77" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C77">
+        <v>78</v>
+      </c>
+      <c r="D77" s="4">
+        <v>7.56</v>
+      </c>
+      <c r="E77" s="11">
+        <v>1320</v>
+      </c>
+      <c r="F77" s="11">
+        <v>710</v>
+      </c>
+      <c r="G77" s="4">
+        <v>2</v>
+      </c>
+      <c r="H77" s="4">
+        <v>1</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K77" s="8"/>
+      <c r="M77" s="8"/>
+    </row>
+    <row r="78" spans="1:13">
+      <c r="A78" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C78">
+        <v>17</v>
+      </c>
+      <c r="D78" s="4">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="E78" s="11">
+        <v>1085</v>
+      </c>
+      <c r="F78" s="11">
+        <v>466</v>
+      </c>
+      <c r="G78" s="4">
+        <v>2</v>
+      </c>
+      <c r="H78" s="4">
+        <v>2</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K78" s="8"/>
+      <c r="M78" s="8"/>
+    </row>
+    <row r="79" spans="1:13">
+      <c r="A79" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C79">
+        <v>39</v>
+      </c>
+      <c r="D79" s="4">
+        <v>8.81</v>
+      </c>
+      <c r="E79" s="11">
+        <v>700</v>
+      </c>
+      <c r="F79" s="11">
+        <v>466</v>
+      </c>
+      <c r="G79" s="4">
+        <v>2</v>
+      </c>
+      <c r="H79" s="4">
+        <v>1</v>
+      </c>
+      <c r="I79" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K79" s="8"/>
+      <c r="M79" s="8"/>
+    </row>
+    <row r="80" spans="1:13">
+      <c r="A80" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C80">
+        <v>36</v>
+      </c>
+      <c r="D80" s="4">
+        <v>10.67</v>
+      </c>
+      <c r="E80" s="11">
+        <v>1210</v>
+      </c>
+      <c r="F80" s="11">
+        <v>710</v>
+      </c>
+      <c r="G80" s="4">
+        <v>1</v>
+      </c>
+      <c r="H80" s="4">
+        <v>2</v>
+      </c>
+      <c r="I80" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K80" s="8"/>
+      <c r="M80" s="8"/>
+    </row>
+    <row r="81" spans="1:13">
+      <c r="A81" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C81">
+        <v>5</v>
+      </c>
+      <c r="D81" s="4">
+        <v>9.01</v>
+      </c>
+      <c r="E81" s="11">
+        <v>515</v>
+      </c>
+      <c r="F81" s="11">
+        <v>466</v>
+      </c>
+      <c r="G81" s="4">
+        <v>1</v>
+      </c>
+      <c r="H81" s="4">
+        <v>2</v>
+      </c>
+      <c r="I81" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K81" s="8"/>
+      <c r="M81" s="8"/>
+    </row>
+    <row r="82" spans="1:13">
+      <c r="A82" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C82">
+        <v>7.0000000000000009</v>
+      </c>
+      <c r="D82" s="4">
+        <v>6.75</v>
+      </c>
+      <c r="E82" s="11">
+        <v>608</v>
+      </c>
+      <c r="F82" s="11">
+        <v>710</v>
+      </c>
+      <c r="G82" s="4">
+        <v>2</v>
+      </c>
+      <c r="H82" s="4">
+        <v>2</v>
+      </c>
+      <c r="I82" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K82" s="8"/>
+      <c r="M82" s="8"/>
+    </row>
+    <row r="83" spans="1:13">
+      <c r="A83" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C83">
+        <v>53</v>
+      </c>
+      <c r="D83" s="4">
+        <v>6.94</v>
+      </c>
+      <c r="E83" s="11">
+        <v>1333</v>
+      </c>
+      <c r="F83" s="11">
+        <v>1217</v>
+      </c>
+      <c r="G83" s="4">
+        <v>2</v>
+      </c>
+      <c r="H83" s="4">
+        <v>1</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K83" s="8"/>
+      <c r="M83" s="8"/>
+    </row>
+    <row r="84" spans="1:13">
+      <c r="A84" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C84">
+        <v>14.000000000000002</v>
+      </c>
+      <c r="D84" s="4">
+        <v>7.57</v>
+      </c>
+      <c r="E84" s="11">
+        <v>980</v>
+      </c>
+      <c r="F84" s="11">
+        <v>466</v>
+      </c>
+      <c r="G84" s="4">
+        <v>2</v>
+      </c>
+      <c r="H84" s="4">
+        <v>1</v>
+      </c>
+      <c r="I84" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K84" s="8"/>
+      <c r="M84" s="8"/>
+    </row>
+    <row r="85" spans="1:13">
+      <c r="A85" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C85">
+        <v>10</v>
+      </c>
+      <c r="D85" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="E85" s="11">
+        <v>900</v>
+      </c>
+      <c r="F85" s="11">
+        <v>701</v>
+      </c>
+      <c r="G85" s="4">
+        <v>2</v>
+      </c>
+      <c r="H85" s="4">
+        <v>1</v>
+      </c>
+      <c r="I85" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K85" s="8"/>
+      <c r="M85" s="8"/>
+    </row>
+    <row r="86" spans="1:13">
+      <c r="A86" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C86">
+        <v>39</v>
+      </c>
+      <c r="D86" s="4">
+        <v>6.96</v>
+      </c>
+      <c r="E86" s="11">
+        <v>1040</v>
+      </c>
+      <c r="F86" s="11">
+        <v>710</v>
+      </c>
+      <c r="G86" s="4">
+        <v>2</v>
+      </c>
+      <c r="H86" s="4">
+        <v>1</v>
+      </c>
+      <c r="I86" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K86" s="8"/>
+      <c r="M86" s="8"/>
+    </row>
+    <row r="87" spans="1:13">
+      <c r="A87" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C87">
+        <v>18</v>
+      </c>
+      <c r="D87" s="4">
+        <v>7.78</v>
+      </c>
+      <c r="E87" s="11">
+        <v>875</v>
+      </c>
+      <c r="F87" s="11">
+        <v>1217</v>
+      </c>
+      <c r="G87" s="4">
+        <v>1</v>
+      </c>
+      <c r="H87" s="4">
+        <v>1</v>
+      </c>
+      <c r="I87" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K87" s="8"/>
+      <c r="M87" s="8"/>
+    </row>
+    <row r="88" spans="1:13">
+      <c r="A88" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C88">
+        <v>3</v>
+      </c>
+      <c r="D88" s="4">
+        <v>6.29</v>
+      </c>
+      <c r="E88" s="11">
+        <v>2680</v>
+      </c>
+      <c r="F88" s="11">
+        <v>466</v>
+      </c>
+      <c r="G88" s="4">
+        <v>2</v>
+      </c>
+      <c r="H88" s="4">
+        <v>2</v>
+      </c>
+      <c r="I88" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K88" s="8"/>
+      <c r="M88" s="8"/>
+    </row>
+    <row r="89" spans="1:13">
+      <c r="A89" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C89" s="8">
+        <v>-1</v>
+      </c>
+      <c r="D89" s="4">
+        <v>11.45</v>
+      </c>
+      <c r="E89" s="11">
+        <v>733</v>
+      </c>
+      <c r="F89" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I89" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K89" s="8"/>
+      <c r="M89" s="8"/>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="A90" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C90" s="8">
+        <v>-1</v>
+      </c>
+      <c r="D90" s="4">
+        <v>11.5</v>
+      </c>
+      <c r="E90" s="11">
+        <v>283</v>
+      </c>
+      <c r="F90" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I90" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K90" s="8"/>
+      <c r="M90" s="8"/>
+    </row>
+    <row r="91" spans="1:13">
+      <c r="A91" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C91" s="8">
+        <v>-1</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E91" s="11">
+        <v>560</v>
+      </c>
+      <c r="F91" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I91" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K91" s="8"/>
+      <c r="M91" s="8"/>
+    </row>
+    <row r="92" spans="1:13">
+      <c r="A92" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C92" s="8">
+        <v>-1</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E92" s="11">
+        <v>757</v>
+      </c>
+      <c r="F92" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I92" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K92" s="8"/>
+      <c r="M92" s="8"/>
+    </row>
+    <row r="93" spans="1:13">
+      <c r="A93" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C93" s="8">
+        <v>-1</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E93" s="11">
+        <v>1043</v>
+      </c>
+      <c r="F93" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I93" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K93" s="8"/>
+      <c r="M93" s="8"/>
+    </row>
+    <row r="94" spans="1:13">
+      <c r="A94" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C94" s="8">
+        <v>-1</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E94" s="11">
+        <v>730</v>
+      </c>
+      <c r="F94" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I94" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K94" s="8"/>
+      <c r="M94" s="8"/>
+    </row>
+    <row r="95" spans="1:13">
+      <c r="A95" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C95" s="8">
+        <v>-1</v>
+      </c>
+      <c r="D95" s="4">
+        <v>10.75</v>
+      </c>
+      <c r="E95" s="11">
+        <v>-1</v>
+      </c>
+      <c r="F95" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G95" s="4">
+        <v>2</v>
+      </c>
+      <c r="H95" s="4">
+        <v>2</v>
+      </c>
+      <c r="I95" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K95" s="8"/>
+      <c r="M95" s="8"/>
+    </row>
+    <row r="96" spans="1:13">
+      <c r="A96" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C96" s="8">
+        <v>-1</v>
+      </c>
+      <c r="D96" s="4">
+        <v>12.77</v>
+      </c>
+      <c r="E96" s="11">
+        <v>-1</v>
+      </c>
+      <c r="F96" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G96" s="4">
+        <v>1</v>
+      </c>
+      <c r="H96" s="4">
+        <v>1</v>
+      </c>
+      <c r="I96" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K96" s="8"/>
+      <c r="M96" s="8"/>
+    </row>
+    <row r="97" spans="1:13">
+      <c r="A97" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C97" s="8">
+        <v>-1</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E97" s="11">
+        <v>967</v>
+      </c>
+      <c r="F97" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H97" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I97" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K97" s="8"/>
+      <c r="M97" s="8"/>
+    </row>
+    <row r="98" spans="1:13">
+      <c r="A98" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C98" s="8">
+        <v>-1</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E98" s="11">
+        <v>1080</v>
+      </c>
+      <c r="F98" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G98" s="4">
+        <v>2</v>
+      </c>
+      <c r="H98" s="4">
+        <v>1</v>
+      </c>
+      <c r="I98" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K98" s="8"/>
+      <c r="M98" s="8"/>
+    </row>
+    <row r="99" spans="1:13">
+      <c r="A99" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C99" s="8">
+        <v>-1</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E99" s="11">
+        <v>-1</v>
+      </c>
+      <c r="F99" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H99" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I99" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K99" s="8"/>
+      <c r="M99" s="8"/>
+    </row>
+    <row r="100" spans="1:13">
+      <c r="A100" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C100" s="8">
+        <v>-1</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E100" s="11">
+        <v>325</v>
+      </c>
+      <c r="F100" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H100" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I100" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K100" s="8"/>
+      <c r="M100" s="8"/>
+    </row>
+    <row r="101" spans="1:13">
+      <c r="A101" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C101" s="8">
+        <v>-1</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E101" s="11">
+        <v>2833</v>
+      </c>
+      <c r="F101" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H101" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I101" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K101" s="8"/>
+      <c r="M101" s="8"/>
+    </row>
+    <row r="102" spans="1:13">
+      <c r="A102" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C102" s="8">
+        <v>-1</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E102" s="11">
+        <v>370</v>
+      </c>
+      <c r="F102" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H102" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I102" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K102" s="8"/>
+      <c r="M102" s="8"/>
+    </row>
+    <row r="103" spans="1:13">
+      <c r="A103" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C103" s="8">
+        <v>-1</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E103" s="11">
+        <v>531</v>
+      </c>
+      <c r="F103" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H103" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I103" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K103" s="8"/>
+      <c r="M103" s="8"/>
+    </row>
+    <row r="104" spans="1:13">
+      <c r="A104" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C104" s="8">
+        <v>-1</v>
+      </c>
+      <c r="D104" s="4">
+        <v>14.67</v>
+      </c>
+      <c r="E104" s="11">
+        <v>-1</v>
+      </c>
+      <c r="F104" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G104" s="4">
+        <v>2</v>
+      </c>
+      <c r="H104" s="4">
+        <v>1</v>
+      </c>
+      <c r="I104" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K104" s="8"/>
+      <c r="M104" s="8"/>
+    </row>
+    <row r="105" spans="1:13">
+      <c r="A105" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C105" s="8">
+        <v>-1</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E105" s="11">
+        <v>1070</v>
+      </c>
+      <c r="F105" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H105" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I105" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K105" s="8"/>
+      <c r="M105" s="8"/>
+    </row>
+    <row r="106" spans="1:13">
+      <c r="A106" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C106" s="8">
+        <v>-1</v>
+      </c>
+      <c r="D106" s="4">
+        <v>12.7</v>
+      </c>
+      <c r="E106" s="11">
+        <v>828</v>
+      </c>
+      <c r="F106" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H106" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I106" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K106" s="8"/>
+      <c r="M106" s="8"/>
+    </row>
+    <row r="107" spans="1:13">
+      <c r="A107" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C107" s="8">
+        <v>-1</v>
+      </c>
+      <c r="D107" s="4">
+        <v>8.42</v>
+      </c>
+      <c r="E107" s="11">
+        <v>-1</v>
+      </c>
+      <c r="F107" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G107" s="4">
+        <v>2</v>
+      </c>
+      <c r="H107" s="4">
+        <v>1</v>
+      </c>
+      <c r="I107" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K107" s="8"/>
+      <c r="M107" s="8"/>
+    </row>
+    <row r="108" spans="1:13">
+      <c r="A108" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C108" s="8">
+        <v>-1</v>
+      </c>
+      <c r="D108" s="4">
+        <v>10.08</v>
+      </c>
+      <c r="E108" s="11">
+        <v>538</v>
+      </c>
+      <c r="F108" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H108" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I108" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K108" s="8"/>
+      <c r="M108" s="8"/>
+    </row>
+    <row r="109" spans="1:13">
+      <c r="A109" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C109" s="8">
+        <v>-1</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E109" s="11">
+        <v>840</v>
+      </c>
+      <c r="F109" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H109" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I109" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K109" s="8"/>
+      <c r="M109" s="8"/>
+    </row>
+    <row r="110" spans="1:13">
+      <c r="A110" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C110" s="8">
+        <v>-1</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E110" s="11">
+        <v>650</v>
+      </c>
+      <c r="F110" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H110" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I110" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K110" s="8"/>
+      <c r="M110" s="8"/>
+    </row>
+    <row r="111" spans="1:13">
+      <c r="A111" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C111" s="8">
+        <v>-1</v>
+      </c>
+      <c r="D111" s="4">
+        <v>10.75</v>
+      </c>
+      <c r="E111" s="11">
+        <v>-1</v>
+      </c>
+      <c r="F111" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G111" s="4">
+        <v>2</v>
+      </c>
+      <c r="H111" s="4">
+        <v>2</v>
+      </c>
+      <c r="I111" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K111" s="8"/>
+      <c r="M111" s="8"/>
+    </row>
+    <row r="112" spans="1:13">
+      <c r="A112" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C112" s="8">
+        <v>-1</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E112" s="11">
+        <v>-1</v>
+      </c>
+      <c r="F112" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G112" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H112" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I112" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K112" s="8"/>
+      <c r="M112" s="8"/>
+    </row>
+    <row r="113" spans="1:13">
+      <c r="A113" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C113" s="8">
+        <v>-1</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E113" s="11">
+        <v>1167</v>
+      </c>
+      <c r="F113" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H113" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I113" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K113" s="8"/>
+      <c r="M113" s="8"/>
+    </row>
+    <row r="114" spans="1:13">
+      <c r="A114" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C114" s="8">
+        <v>-1</v>
+      </c>
+      <c r="D114" s="4">
+        <v>9.9</v>
+      </c>
+      <c r="E114" s="11">
+        <v>-1</v>
+      </c>
+      <c r="F114" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G114" s="4">
+        <v>1</v>
+      </c>
+      <c r="H114" s="4">
+        <v>2</v>
+      </c>
+      <c r="I114" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K114" s="8"/>
+      <c r="M114" s="8"/>
+    </row>
+    <row r="115" spans="1:13">
+      <c r="A115" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C115" s="8">
+        <v>-1</v>
+      </c>
+      <c r="D115" s="4">
+        <v>7.33</v>
+      </c>
+      <c r="E115" s="11">
+        <v>-1</v>
+      </c>
+      <c r="F115" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G115" s="4">
+        <v>1</v>
+      </c>
+      <c r="H115" s="4">
+        <v>1</v>
+      </c>
+      <c r="I115" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K115" s="8"/>
+      <c r="M115" s="8"/>
+    </row>
+    <row r="116" spans="1:13">
+      <c r="A116" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C116" s="8">
+        <v>-1</v>
+      </c>
+      <c r="D116" s="4">
+        <v>11.17</v>
+      </c>
+      <c r="E116" s="11">
+        <v>-1</v>
+      </c>
+      <c r="F116" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G116" s="4">
+        <v>2</v>
+      </c>
+      <c r="H116" s="4">
+        <v>1</v>
+      </c>
+      <c r="I116" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K116" s="8"/>
+      <c r="M116" s="8"/>
+    </row>
+    <row r="117" spans="1:13">
+      <c r="A117" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C117" s="8">
+        <v>-1</v>
+      </c>
+      <c r="D117" s="4">
+        <v>11.42</v>
+      </c>
+      <c r="E117" s="11">
+        <v>1500</v>
+      </c>
+      <c r="F117" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H117" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I117" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K117" s="8"/>
+      <c r="M117" s="8"/>
+    </row>
+    <row r="118" spans="1:13">
+      <c r="A118" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C118" s="8">
+        <v>-1</v>
+      </c>
+      <c r="D118" s="4">
+        <v>10</v>
+      </c>
+      <c r="E118" s="11">
+        <v>655</v>
+      </c>
+      <c r="F118" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H118" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I118" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K118" s="8"/>
+      <c r="M118" s="8"/>
+    </row>
+    <row r="119" spans="1:13">
+      <c r="A119" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C119" s="8">
+        <v>-1</v>
+      </c>
+      <c r="D119" s="4">
+        <v>10.42</v>
+      </c>
+      <c r="E119" s="11">
+        <v>-1</v>
+      </c>
+      <c r="F119" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G119" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H119" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I119" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K119" s="8"/>
+      <c r="M119" s="8"/>
+    </row>
+    <row r="120" spans="1:13">
+      <c r="A120" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C120" s="8">
+        <v>-1</v>
+      </c>
+      <c r="D120" s="4">
+        <v>10</v>
+      </c>
+      <c r="E120" s="11">
+        <v>503</v>
+      </c>
+      <c r="F120" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G120" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H120" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I120" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K120" s="8"/>
+      <c r="M120" s="8"/>
+    </row>
+    <row r="121" spans="1:13">
+      <c r="A121" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C121" s="8">
+        <v>-1</v>
+      </c>
+      <c r="D121" s="4">
+        <v>6.8</v>
+      </c>
+      <c r="E121" s="11">
+        <v>1605</v>
+      </c>
+      <c r="F121" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G121" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H121" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I121" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K121" s="8"/>
+      <c r="M121" s="8"/>
+    </row>
+    <row r="122" spans="1:13">
+      <c r="A122" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C122" s="8">
+        <v>-1</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E122" s="11">
+        <v>-1</v>
+      </c>
+      <c r="F122" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G122" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H122" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I122" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K122" s="8"/>
+      <c r="M122" s="8"/>
+    </row>
+    <row r="123" spans="1:13">
+      <c r="A123" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C123" s="8">
+        <v>-1</v>
+      </c>
+      <c r="D123" s="4">
+        <v>10.25</v>
+      </c>
+      <c r="E123" s="11">
+        <v>830</v>
+      </c>
+      <c r="F123" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G123" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H123" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I123" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K123" s="8"/>
+      <c r="M123" s="8"/>
+    </row>
+    <row r="124" spans="1:13">
+      <c r="A124" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C124" s="8">
+        <v>-1</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E124" s="11">
+        <v>1500</v>
+      </c>
+      <c r="F124" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G124" s="4">
+        <v>2</v>
+      </c>
+      <c r="H124" s="4">
+        <v>1</v>
+      </c>
+      <c r="I124" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K124" s="8"/>
+      <c r="M124" s="8"/>
+    </row>
+    <row r="125" spans="1:13">
+      <c r="A125" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C125" s="8">
+        <v>-1</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E125" s="11">
+        <v>-1</v>
+      </c>
+      <c r="F125" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G125" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H125" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I125" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K125" s="8"/>
+      <c r="M125" s="8"/>
+    </row>
+    <row r="126" spans="1:13">
+      <c r="A126" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C126" s="8">
+        <v>-1</v>
+      </c>
+      <c r="D126" s="4">
+        <v>11.57</v>
+      </c>
+      <c r="E126" s="11">
+        <v>1000</v>
+      </c>
+      <c r="F126" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G126" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H126" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I126" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K126" s="8"/>
+      <c r="M126" s="8"/>
+    </row>
+    <row r="127" spans="1:13">
+      <c r="A127" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C127" s="8">
+        <v>-1</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E127" s="11">
+        <v>588</v>
+      </c>
+      <c r="F127" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G127" s="4">
+        <v>2</v>
+      </c>
+      <c r="H127" s="4">
+        <v>1</v>
+      </c>
+      <c r="I127" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K127" s="8"/>
+      <c r="M127" s="8"/>
+    </row>
+    <row r="128" spans="1:13">
+      <c r="A128" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C128" s="8">
+        <v>-1</v>
+      </c>
+      <c r="D128" s="4">
+        <v>9.33</v>
+      </c>
+      <c r="E128" s="11">
+        <v>-1</v>
+      </c>
+      <c r="F128" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G128" s="4">
+        <v>2</v>
+      </c>
+      <c r="H128" s="4">
+        <v>1</v>
+      </c>
+      <c r="I128" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K128" s="8"/>
+      <c r="M128" s="8"/>
+    </row>
+    <row r="129" spans="1:13">
+      <c r="A129" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C129" s="8">
+        <v>-1</v>
+      </c>
+      <c r="D129" s="4">
+        <v>9.25</v>
+      </c>
+      <c r="E129" s="11">
+        <v>513</v>
+      </c>
+      <c r="F129" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G129" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H129" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I129" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K129" s="8"/>
+      <c r="M129" s="8"/>
+    </row>
+    <row r="130" spans="1:13">
+      <c r="A130" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C130" s="8">
+        <v>-1</v>
+      </c>
+      <c r="D130" s="4">
+        <v>12.17</v>
+      </c>
+      <c r="E130" s="11">
+        <v>610</v>
+      </c>
+      <c r="F130" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G130" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H130" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I130" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K130" s="8"/>
+      <c r="M130" s="8"/>
+    </row>
+    <row r="131" spans="1:13">
+      <c r="A131" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C131" s="8">
+        <v>-1</v>
+      </c>
+      <c r="D131" s="4">
+        <v>9.17</v>
+      </c>
+      <c r="E131" s="11">
+        <v>656</v>
+      </c>
+      <c r="F131" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G131" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H131" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I131" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K131" s="8"/>
+      <c r="M131" s="8"/>
+    </row>
+    <row r="132" spans="1:13">
+      <c r="A132" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C132" s="8">
+        <v>-1</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E132" s="11">
+        <v>-1</v>
+      </c>
+      <c r="F132" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G132" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H132" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I132" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K132" s="8"/>
+      <c r="M132" s="8"/>
+    </row>
+    <row r="133" spans="1:13">
+      <c r="A133" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C133" s="8">
+        <v>-1</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E133" s="11">
+        <v>1093</v>
+      </c>
+      <c r="F133" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G133" s="4">
+        <v>2</v>
+      </c>
+      <c r="H133" s="4">
+        <v>1</v>
+      </c>
+      <c r="I133" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K133" s="8"/>
+      <c r="M133" s="8"/>
+    </row>
+    <row r="134" spans="1:13">
+      <c r="A134" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C134" s="8">
+        <v>-1</v>
+      </c>
+      <c r="D134" s="4">
+        <v>6.98</v>
+      </c>
+      <c r="E134" s="11">
+        <v>1480</v>
+      </c>
+      <c r="F134" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G134" s="4">
+        <v>2</v>
+      </c>
+      <c r="H134" s="4">
+        <v>1</v>
+      </c>
+      <c r="I134" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K134" s="8"/>
+      <c r="M134" s="8"/>
+    </row>
+    <row r="135" spans="1:13">
+      <c r="A135" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="E135" s="11">
+        <v>-1</v>
+      </c>
+      <c r="F135" s="11">
+        <v>-1</v>
+      </c>
+      <c r="K135" s="8"/>
+      <c r="M135" s="8"/>
+    </row>
+    <row r="136" spans="1:13">
+      <c r="A136" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D136" s="4">
+        <v>10</v>
+      </c>
+      <c r="E136" s="11">
+        <v>-1</v>
+      </c>
+      <c r="F136" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G136" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H136" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I136" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K136" s="8"/>
+      <c r="M136" s="8"/>
+    </row>
+    <row r="137" spans="1:13">
+      <c r="A137" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D137" s="4">
+        <v>9.32</v>
+      </c>
+      <c r="E137" s="11">
+        <v>720</v>
+      </c>
+      <c r="F137" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G137" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H137" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I137" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K137" s="8"/>
+      <c r="M137" s="8"/>
+    </row>
+    <row r="138" spans="1:13">
+      <c r="A138" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D138" s="4">
+        <v>6.6</v>
+      </c>
+      <c r="E138" s="11">
+        <v>1740</v>
+      </c>
+      <c r="F138" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G138" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H138" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I138" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K138" s="8"/>
+      <c r="M138" s="8"/>
+    </row>
+    <row r="139" spans="1:13">
+      <c r="A139" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E139" s="11">
+        <v>535</v>
+      </c>
+      <c r="F139" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G139" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H139" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I139" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K139" s="8"/>
+      <c r="M139" s="8"/>
+    </row>
+    <row r="140" spans="1:13">
+      <c r="A140" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E140" s="11">
+        <v>1760</v>
+      </c>
+      <c r="F140" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G140" s="4">
+        <v>2</v>
+      </c>
+      <c r="H140" s="4">
+        <v>1</v>
+      </c>
+      <c r="I140" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K140" s="8"/>
+      <c r="M140" s="8"/>
+    </row>
+    <row r="141" spans="1:13">
+      <c r="A141" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D141" s="4">
+        <v>12.67</v>
+      </c>
+      <c r="E141" s="11">
+        <v>-1</v>
+      </c>
+      <c r="F141" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G141" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H141" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I141" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K141" s="8"/>
+      <c r="M141" s="8"/>
+    </row>
+    <row r="142" spans="1:13">
+      <c r="A142" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E142" s="11">
+        <v>448</v>
+      </c>
+      <c r="F142" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G142" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H142" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I142" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K142" s="8"/>
+      <c r="M142" s="8"/>
+    </row>
+    <row r="143" spans="1:13">
+      <c r="A143" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E143" s="11">
+        <v>-1</v>
+      </c>
+      <c r="F143" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G143" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H143" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I143" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K143" s="8"/>
+      <c r="M143" s="8"/>
+    </row>
+    <row r="144" spans="1:13">
+      <c r="A144" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E144" s="11">
+        <v>1245</v>
+      </c>
+      <c r="F144" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G144" s="4">
+        <v>2</v>
+      </c>
+      <c r="H144" s="4">
+        <v>2</v>
+      </c>
+      <c r="I144" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K144" s="8"/>
+      <c r="M144" s="8"/>
+    </row>
+    <row r="145" spans="1:13">
+      <c r="A145" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D145" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="E145" s="11">
+        <v>1500</v>
+      </c>
+      <c r="F145" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G145" s="4">
+        <v>2</v>
+      </c>
+      <c r="H145" s="4">
+        <v>1</v>
+      </c>
+      <c r="I145" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K145" s="8"/>
+      <c r="M145" s="8"/>
+    </row>
+    <row r="146" spans="1:13">
+      <c r="A146" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D146" s="4">
+        <v>10.8</v>
+      </c>
+      <c r="E146" s="11">
+        <v>-1</v>
+      </c>
+      <c r="F146" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G146" s="4">
+        <v>2</v>
+      </c>
+      <c r="H146" s="4">
+        <v>1</v>
+      </c>
+      <c r="I146" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K146" s="8"/>
+      <c r="M146" s="8"/>
+    </row>
+    <row r="147" spans="1:13">
+      <c r="A147" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E147" s="11">
+        <v>528</v>
+      </c>
+      <c r="F147" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G147" s="4">
+        <v>2</v>
+      </c>
+      <c r="H147" s="4">
+        <v>2</v>
+      </c>
+      <c r="I147" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K147" s="8"/>
+      <c r="M147" s="8"/>
+    </row>
+    <row r="148" spans="1:13">
+      <c r="A148" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D148" s="4">
+        <v>12.7</v>
+      </c>
+      <c r="E148" s="11">
+        <v>400</v>
+      </c>
+      <c r="F148" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G148" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H148" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I148" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K148" s="8"/>
+      <c r="M148" s="8"/>
+    </row>
+    <row r="149" spans="1:13">
+      <c r="A149" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E149" s="11">
+        <v>-1</v>
+      </c>
+      <c r="F149" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G149" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H149" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I149" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K149" s="8"/>
+      <c r="M149" s="8"/>
+    </row>
+    <row r="150" spans="1:13">
+      <c r="A150" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D150" s="4">
+        <v>10.8</v>
+      </c>
+      <c r="E150" s="11">
+        <v>-1</v>
+      </c>
+      <c r="F150" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G150" s="4">
+        <v>2</v>
+      </c>
+      <c r="H150" s="4">
+        <v>2</v>
+      </c>
+      <c r="I150" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K150" s="8"/>
+      <c r="M150" s="8"/>
+    </row>
+    <row r="151" spans="1:13">
+      <c r="A151" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D151" s="4">
+        <v>11.42</v>
+      </c>
+      <c r="E151" s="11">
+        <v>-1</v>
+      </c>
+      <c r="F151" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G151" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H151" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I151" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K151" s="8"/>
+      <c r="M151" s="8"/>
+    </row>
+    <row r="152" spans="1:13">
+      <c r="A152" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E152" s="11">
+        <v>913</v>
+      </c>
+      <c r="F152" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G152" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H152" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I152" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K152" s="8"/>
+      <c r="M152" s="8"/>
+    </row>
+    <row r="153" spans="1:13">
+      <c r="A153" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E153" s="11">
+        <v>-1</v>
+      </c>
+      <c r="F153" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G153" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H153" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I153" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K153" s="8"/>
+      <c r="M153" s="8"/>
+    </row>
+    <row r="154" spans="1:13">
+      <c r="A154" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E154" s="11">
+        <v>425</v>
+      </c>
+      <c r="F154" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G154" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H154" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I154" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K154" s="8"/>
+      <c r="M154" s="8"/>
+    </row>
+    <row r="155" spans="1:13">
+      <c r="A155" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D155" s="4">
+        <v>13</v>
+      </c>
+      <c r="E155" s="11">
+        <v>658</v>
+      </c>
+      <c r="F155" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G155" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H155" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I155" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K155" s="8"/>
+      <c r="M155" s="8"/>
+    </row>
+    <row r="156" spans="1:13">
+      <c r="A156" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D156" s="4">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E156" s="11">
+        <v>-1</v>
+      </c>
+      <c r="F156" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G156" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H156" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I156" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K156" s="8"/>
+      <c r="M156" s="8"/>
+    </row>
+    <row r="157" spans="1:13">
+      <c r="A157" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D157" s="4">
+        <v>12.25</v>
+      </c>
+      <c r="E157" s="11">
+        <v>-1</v>
+      </c>
+      <c r="F157" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G157" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H157" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I157" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K157" s="8"/>
+      <c r="M157" s="8"/>
+    </row>
+    <row r="158" spans="1:13">
+      <c r="A158" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D158" s="4">
+        <v>7</v>
+      </c>
+      <c r="E158" s="11">
+        <v>890</v>
+      </c>
+      <c r="F158" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G158" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H158" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I158" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K158" s="8"/>
+      <c r="M158" s="8"/>
+    </row>
+    <row r="159" spans="1:13">
+      <c r="A159" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D159" s="4">
+        <v>14.25</v>
+      </c>
+      <c r="E159" s="11">
+        <v>448</v>
+      </c>
+      <c r="F159" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G159" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H159" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I159" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K159" s="8"/>
+      <c r="M159" s="8"/>
+    </row>
+    <row r="160" spans="1:13">
+      <c r="A160" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D160" s="4">
+        <v>11</v>
+      </c>
+      <c r="E160" s="11">
+        <v>550</v>
+      </c>
+      <c r="F160" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G160" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H160" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I160" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K160" s="8"/>
+      <c r="M160" s="8"/>
+    </row>
+    <row r="161" spans="1:13">
+      <c r="A161" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D161" s="4">
+        <v>13.17</v>
+      </c>
+      <c r="E161" s="11">
+        <v>575</v>
+      </c>
+      <c r="F161" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G161" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H161" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I161" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K161" s="8"/>
+      <c r="M161" s="8"/>
+    </row>
+    <row r="162" spans="1:13">
+      <c r="A162" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D162" s="4">
+        <v>12.16</v>
+      </c>
+      <c r="E162" s="11">
+        <v>832</v>
+      </c>
+      <c r="F162" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G162" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H162" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I162" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K162" s="8"/>
+      <c r="M162" s="8"/>
+    </row>
+    <row r="163" spans="1:13">
+      <c r="A163" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D163" s="4">
+        <v>9</v>
+      </c>
+      <c r="E163" s="11">
+        <v>1725</v>
+      </c>
+      <c r="F163" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G163" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H163" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I163" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K163" s="8"/>
+      <c r="M163" s="8"/>
+    </row>
+    <row r="164" spans="1:13">
+      <c r="A164" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D164" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E164" s="11">
+        <v>855</v>
+      </c>
+      <c r="F164" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G164" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H164" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I164" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K164" s="8"/>
+      <c r="M164" s="8"/>
+    </row>
+    <row r="165" spans="1:13">
+      <c r="A165" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D165" s="4">
+        <v>11.17</v>
+      </c>
+      <c r="E165" s="11">
+        <v>-1</v>
+      </c>
+      <c r="F165" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G165" s="4">
+        <v>2</v>
+      </c>
+      <c r="H165" s="4">
+        <v>3</v>
+      </c>
+      <c r="I165" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K165" s="8"/>
+      <c r="M165" s="8"/>
+    </row>
+    <row r="166" spans="1:13">
+      <c r="A166" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D166" s="4">
+        <v>14.17</v>
+      </c>
+      <c r="E166" s="11">
+        <v>772</v>
+      </c>
+      <c r="F166" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G166" s="4">
+        <v>2</v>
+      </c>
+      <c r="H166" s="4">
+        <v>1</v>
+      </c>
+      <c r="I166" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K166" s="8"/>
+      <c r="M166" s="8"/>
+    </row>
+    <row r="167" spans="1:13">
+      <c r="A167" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D167" s="4">
+        <v>11.92</v>
+      </c>
+      <c r="E167" s="11">
+        <v>3460</v>
+      </c>
+      <c r="F167" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G167" s="4">
+        <v>2</v>
+      </c>
+      <c r="H167" s="4">
+        <v>1</v>
+      </c>
+      <c r="I167" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K167" s="8"/>
+      <c r="M167" s="8"/>
+    </row>
+    <row r="168" spans="1:13">
+      <c r="A168" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D168" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E168" s="11">
+        <v>460</v>
+      </c>
+      <c r="F168" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G168" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H168" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I168" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K168" s="8"/>
+      <c r="M168" s="8"/>
+    </row>
+    <row r="169" spans="1:13">
+      <c r="A169" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D169" s="4">
+        <v>12.5</v>
+      </c>
+      <c r="E169" s="11">
+        <v>935</v>
+      </c>
+      <c r="F169" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G169" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H169" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I169" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K169" s="8"/>
+      <c r="M169" s="8"/>
+    </row>
+    <row r="170" spans="1:13">
+      <c r="A170" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D170" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E170" s="11">
+        <v>562</v>
+      </c>
+      <c r="F170" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G170" s="4">
+        <v>2</v>
+      </c>
+      <c r="H170" s="4">
+        <v>1</v>
+      </c>
+      <c r="I170" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K170" s="8"/>
+      <c r="M170" s="8"/>
+    </row>
+    <row r="171" spans="1:13">
+      <c r="A171" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E171" s="11">
+        <v>843</v>
+      </c>
+      <c r="F171" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G171" s="4">
+        <v>2</v>
+      </c>
+      <c r="H171" s="4">
+        <v>1</v>
+      </c>
+      <c r="I171" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K171" s="8"/>
+      <c r="M171" s="8"/>
+    </row>
+    <row r="172" spans="1:13">
+      <c r="A172" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D172" s="4">
+        <v>13.17</v>
+      </c>
+      <c r="E172" s="11">
+        <v>668</v>
+      </c>
+      <c r="F172" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G172" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H172" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I172" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K172" s="8"/>
+      <c r="M172" s="8"/>
+    </row>
+    <row r="173" spans="1:13">
+      <c r="A173" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D173" s="4">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E173" s="11">
+        <v>755</v>
+      </c>
+      <c r="F173" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G173" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H173" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I173" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K173" s="8"/>
+      <c r="M173" s="8"/>
+    </row>
+    <row r="174" spans="1:13">
+      <c r="A174" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D174" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E174" s="11">
+        <v>717</v>
+      </c>
+      <c r="F174" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G174" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H174" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I174" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K174" s="8"/>
+      <c r="M174" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:A175"/>
+  <sheetViews>
+    <sheetView topLeftCell="A147" workbookViewId="0">
+      <selection activeCell="A175" sqref="A2:A175"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" s="8">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="8">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="8">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="8">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="8">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="8">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="8">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="8">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="8">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="8">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="8">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="8">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="8">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="8">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="8">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="8">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="8">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="8">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="8">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="8">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="8">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="8">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="8">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="8">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="8">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="8">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="8">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="8">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="8">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="8">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="8">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="8">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="9">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="9">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="9">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="9">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="9">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="9">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="9">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="9">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="9">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="9">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="9">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="9">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="10">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="9">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="9">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="9">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="9">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="10">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="10">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="9">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="9">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="9">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="9">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="10">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="10">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="9">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="10">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="9">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="10">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="9">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="10">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="9">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="10">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="10">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="9">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="10">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="9">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="9">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="9">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="10">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="9">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="10">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="9">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="10">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="10">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="9">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="10">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="9">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="9">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="10">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="9">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="9">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="10">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="9">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="10">
+        <v>2680</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="9">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="9">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="9">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="9">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="10">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="9">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="9">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="10">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="9">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="10">
+        <v>2833</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="9">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="9">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="10">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="9">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="9">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="9">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="9">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="10">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="10">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="9">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="9">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="10">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="9">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="10">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="9">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="9">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="9">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="9">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" s="10">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" s="10">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" s="9">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" s="10">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" s="9">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" s="10">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="9">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" s="10">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" s="10">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" s="8">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" s="9">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" s="8">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" s="8">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" s="8">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" s="8">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" s="8">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" s="8">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" s="8">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" s="8">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" s="8">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" s="8">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" s="8">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" s="8">
+        <v>3460</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" s="8">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" s="8">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" s="8">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" s="8">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" s="8">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" s="8">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" s="8">
+        <v>717</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>